--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/INVENTARIO ALMACEN MARZO-2023 rtr.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/INVENTARIO ALMACEN MARZO-2023 rtr.xlsx
@@ -129,8 +129,42 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rouss</author>
+  </authors>
+  <commentList>
+    <comment ref="R8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rouss:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="81">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -363,6 +397,42 @@
   </si>
   <si>
     <t>Mar-,2023</t>
+  </si>
+  <si>
+    <t>CHAMBARETE  M</t>
+  </si>
+  <si>
+    <t>MANTECA  820 kg</t>
+  </si>
+  <si>
+    <t>BOLA RES</t>
+  </si>
+  <si>
+    <t>HUESO DE TUETANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRACHERA Inside </t>
+  </si>
+  <si>
+    <t>SUADERO M</t>
+  </si>
+  <si>
+    <t>CHAMBARETE  P</t>
+  </si>
+  <si>
+    <t>CHULETA  S/T   INNOVA</t>
+  </si>
+  <si>
+    <t>CABEZA DE LOMO  Innova</t>
+  </si>
+  <si>
+    <t>error de Bety</t>
+  </si>
+  <si>
+    <t>BETY TIENE ERROR DE   22.52 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETY TIENE ERROR DE   22.52 kg  y Checa la diferencia </t>
   </si>
 </sst>
 </file>
@@ -798,7 +868,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="98">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -2019,13 +2089,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2636,6 +2801,133 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="8" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2762,7 +3054,7 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3092,10 +3384,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="257"/>
+      <c r="B1" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="310"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3107,21 +3399,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="258">
+      <c r="B2" s="311">
         <v>44955</v>
       </c>
-      <c r="C2" s="259"/>
-      <c r="F2" s="260" t="s">
+      <c r="C2" s="312"/>
+      <c r="F2" s="313" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="261" t="s">
+      <c r="K2" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="261"/>
+      <c r="L2" s="314"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="Q2" s="12"/>
@@ -3131,30 +3423,30 @@
     </row>
     <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="262" t="s">
+      <c r="C3" s="315" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="263"/>
+      <c r="D3" s="316"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="264" t="s">
+      <c r="F3" s="317" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="265"/>
+      <c r="G3" s="318"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="266" t="s">
+      <c r="I3" s="319" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="269" t="s">
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
+      <c r="M3" s="322" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="270"/>
-      <c r="O3" s="271" t="s">
+      <c r="N3" s="323"/>
+      <c r="O3" s="324" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="272"/>
+      <c r="P3" s="325"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -3180,7 +3472,7 @@
       <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="267"/>
+      <c r="I4" s="320"/>
       <c r="J4" s="16"/>
       <c r="K4" s="21" t="s">
         <v>10</v>
@@ -3241,8 +3533,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
+      <c r="O5" s="326"/>
+      <c r="P5" s="326"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -3284,8 +3576,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="274"/>
-      <c r="P6" s="274"/>
+      <c r="O6" s="327"/>
+      <c r="P6" s="327"/>
       <c r="Q6" s="45"/>
       <c r="R6" s="13"/>
       <c r="S6" s="46"/>
@@ -3368,8 +3660,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="275"/>
-      <c r="P8" s="275"/>
+      <c r="O8" s="328"/>
+      <c r="P8" s="328"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -3450,8 +3742,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="276"/>
-      <c r="P10" s="276"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="329"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -3579,8 +3871,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="277"/>
-      <c r="P13" s="277"/>
+      <c r="O13" s="330"/>
+      <c r="P13" s="330"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="66"/>
       <c r="S13" s="66"/>
@@ -3848,8 +4140,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="278"/>
-      <c r="P20" s="278"/>
+      <c r="O20" s="331"/>
+      <c r="P20" s="331"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -3934,8 +4226,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="279"/>
-      <c r="P22" s="279"/>
+      <c r="O22" s="332"/>
+      <c r="P22" s="332"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="78"/>
       <c r="S22" s="78"/>
@@ -3977,8 +4269,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="280"/>
-      <c r="P23" s="280"/>
+      <c r="O23" s="333"/>
+      <c r="P23" s="333"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -4100,8 +4392,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="281"/>
-      <c r="P26" s="281"/>
+      <c r="O26" s="334"/>
+      <c r="P26" s="334"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
@@ -4614,10 +4906,10 @@
     <row r="40" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="145"/>
       <c r="D40" s="147"/>
-      <c r="F40" s="268" t="s">
+      <c r="F40" s="321" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="268"/>
+      <c r="G40" s="321"/>
       <c r="H40" s="148">
         <f>SUM(H5:H31)</f>
         <v>51250.14</v>
@@ -4851,7 +5143,7 @@
   <dimension ref="A1:AA55"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G44:G45"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4878,10 +5170,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="257"/>
+      <c r="B1" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="310"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -4896,26 +5188,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="282">
+      <c r="B2" s="335">
         <v>44989</v>
       </c>
-      <c r="C2" s="283"/>
-      <c r="F2" s="284" t="s">
+      <c r="C2" s="336"/>
+      <c r="F2" s="337" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="285"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="288" t="s">
+      <c r="G2" s="338"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="340"/>
+      <c r="J2" s="341" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="288"/>
-      <c r="L2" s="289"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="342"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="261" t="s">
+      <c r="N2" s="314" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="261"/>
+      <c r="O2" s="314"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -4925,33 +5217,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="292" t="s">
+      <c r="C3" s="345" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="293"/>
+      <c r="D3" s="346"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="294" t="s">
+      <c r="F3" s="347" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="295"/>
+      <c r="G3" s="348"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="296" t="s">
+      <c r="I3" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="291"/>
+      <c r="J3" s="343"/>
+      <c r="K3" s="343"/>
+      <c r="L3" s="344"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="269" t="s">
+      <c r="N3" s="314"/>
+      <c r="O3" s="314"/>
+      <c r="P3" s="322" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="270"/>
-      <c r="R3" s="271" t="s">
+      <c r="Q3" s="323"/>
+      <c r="R3" s="324" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="272"/>
+      <c r="S3" s="325"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -4977,7 +5269,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="297"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -5053,8 +5345,8 @@
       <c r="Q5" s="38">
         <v>0</v>
       </c>
-      <c r="R5" s="273"/>
-      <c r="S5" s="273"/>
+      <c r="R5" s="326"/>
+      <c r="S5" s="326"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -5091,8 +5383,8 @@
         <f>O6-I6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
+      <c r="R6" s="327"/>
+      <c r="S6" s="327"/>
       <c r="T6" s="45"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -5179,8 +5471,8 @@
       <c r="Q8" s="52">
         <v>0</v>
       </c>
-      <c r="R8" s="275"/>
-      <c r="S8" s="275"/>
+      <c r="R8" s="328"/>
+      <c r="S8" s="328"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -5267,8 +5559,8 @@
       <c r="Q10" s="52">
         <v>0</v>
       </c>
-      <c r="R10" s="276"/>
-      <c r="S10" s="276"/>
+      <c r="R10" s="329"/>
+      <c r="S10" s="329"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -5408,8 +5700,8 @@
       <c r="Q13" s="52">
         <v>0</v>
       </c>
-      <c r="R13" s="277"/>
-      <c r="S13" s="277"/>
+      <c r="R13" s="330"/>
+      <c r="S13" s="330"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -5717,8 +6009,8 @@
       <c r="Q20" s="52">
         <v>0</v>
       </c>
-      <c r="R20" s="278"/>
-      <c r="S20" s="278"/>
+      <c r="R20" s="331"/>
+      <c r="S20" s="331"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -5805,8 +6097,8 @@
       <c r="Q22" s="52">
         <v>0</v>
       </c>
-      <c r="R22" s="279"/>
-      <c r="S22" s="279"/>
+      <c r="R22" s="332"/>
+      <c r="S22" s="332"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -5852,8 +6144,8 @@
       <c r="Q23" s="52">
         <v>0</v>
       </c>
-      <c r="R23" s="280"/>
-      <c r="S23" s="280"/>
+      <c r="R23" s="333"/>
+      <c r="S23" s="333"/>
       <c r="T23" s="45"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -5993,8 +6285,8 @@
       <c r="Q26" s="52">
         <v>0</v>
       </c>
-      <c r="R26" s="281"/>
-      <c r="S26" s="281"/>
+      <c r="R26" s="334"/>
+      <c r="S26" s="334"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -6677,10 +6969,10 @@
     <row r="43" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="145"/>
       <c r="D43" s="147"/>
-      <c r="F43" s="268" t="s">
+      <c r="F43" s="321" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="268"/>
+      <c r="G43" s="321"/>
       <c r="H43" s="148">
         <f>SUM(H5:H34)</f>
         <v>52842.86</v>
@@ -6933,10 +7225,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6963,10 +7255,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="257"/>
+      <c r="B1" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="310"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -6981,26 +7273,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="282">
+      <c r="B2" s="335">
         <v>45017</v>
       </c>
-      <c r="C2" s="283"/>
-      <c r="F2" s="284" t="s">
+      <c r="C2" s="336"/>
+      <c r="F2" s="337" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="285"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="288" t="s">
+      <c r="G2" s="338"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="340"/>
+      <c r="J2" s="341" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="288"/>
-      <c r="L2" s="289"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="342"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="261" t="s">
+      <c r="N2" s="314" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="261"/>
+      <c r="O2" s="314"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -7010,33 +7302,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="292" t="s">
+      <c r="C3" s="345" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="293"/>
+      <c r="D3" s="346"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="294" t="s">
+      <c r="F3" s="347" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="295"/>
+      <c r="G3" s="348"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="296" t="s">
+      <c r="I3" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="291"/>
+      <c r="J3" s="343"/>
+      <c r="K3" s="343"/>
+      <c r="L3" s="344"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="269" t="s">
+      <c r="N3" s="314"/>
+      <c r="O3" s="314"/>
+      <c r="P3" s="322" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="270"/>
-      <c r="R3" s="271" t="s">
+      <c r="Q3" s="323"/>
+      <c r="R3" s="324" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="272"/>
+      <c r="S3" s="325"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -7062,7 +7354,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="297"/>
+      <c r="I4" s="350"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -7096,36 +7388,49 @@
     </row>
     <row r="5" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="27" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="31"/>
+      <c r="F5" s="28">
+        <v>335.3</v>
+      </c>
+      <c r="G5" s="31">
+        <v>10</v>
+      </c>
       <c r="H5" s="223">
-        <f t="shared" ref="H5:I41" si="0">F5+C5</f>
-        <v>0</v>
+        <f t="shared" ref="H5:I40" si="0">F5+C5</f>
+        <v>335.3</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" s="219"/>
-      <c r="K5" s="217"/>
-      <c r="L5" s="218"/>
+      <c r="K5" s="288">
+        <v>335.3</v>
+      </c>
+      <c r="L5" s="285">
+        <v>10</v>
+      </c>
       <c r="M5" s="42"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="243"/>
+      <c r="N5" s="283">
+        <v>335.03</v>
+      </c>
+      <c r="O5" s="284">
+        <v>10</v>
+      </c>
       <c r="P5" s="239">
-        <f t="shared" ref="P5:P42" si="1">N5-H5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="38">
-        <v>0</v>
-      </c>
-      <c r="R5" s="273"/>
-      <c r="S5" s="273"/>
+        <f t="shared" ref="P5:P40" si="1">N5-H5</f>
+        <v>-0.27000000000003865</v>
+      </c>
+      <c r="Q5" s="44">
+        <f>O5-I5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="326"/>
+      <c r="S5" s="326"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -7133,37 +7438,53 @@
     </row>
     <row r="6" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="29"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="270">
+        <v>172.79</v>
+      </c>
+      <c r="D6" s="29">
+        <v>14</v>
+      </c>
       <c r="E6" s="30"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="28">
+        <v>552.76</v>
+      </c>
+      <c r="G6" s="31">
+        <v>46</v>
+      </c>
       <c r="H6" s="223">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>725.55</v>
       </c>
       <c r="I6" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J6" s="219"/>
-      <c r="K6" s="213"/>
-      <c r="L6" s="214"/>
+      <c r="K6" s="289">
+        <v>725.55</v>
+      </c>
+      <c r="L6" s="282">
+        <v>60</v>
+      </c>
       <c r="M6" s="42"/>
-      <c r="N6" s="244"/>
-      <c r="O6" s="245"/>
-      <c r="P6" s="240">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="44">
+      <c r="N6" s="244">
+        <v>684.25</v>
+      </c>
+      <c r="O6" s="245">
+        <v>58</v>
+      </c>
+      <c r="P6" s="306">
+        <f t="shared" si="1"/>
+        <v>-41.299999999999955</v>
+      </c>
+      <c r="Q6" s="300">
         <f>O6-I6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
+        <v>-2</v>
+      </c>
+      <c r="R6" s="327"/>
+      <c r="S6" s="327"/>
       <c r="T6" s="45"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -7175,32 +7496,45 @@
     </row>
     <row r="7" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="60"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="28">
+        <v>771.97</v>
+      </c>
+      <c r="G7" s="31">
+        <v>66</v>
+      </c>
       <c r="H7" s="223">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>771.97</v>
       </c>
       <c r="I7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J7" s="219"/>
-      <c r="K7" s="213"/>
-      <c r="L7" s="214"/>
+      <c r="K7" s="289">
+        <v>771.97</v>
+      </c>
+      <c r="L7" s="282">
+        <v>66</v>
+      </c>
       <c r="M7" s="42"/>
-      <c r="N7" s="244"/>
-      <c r="O7" s="245"/>
-      <c r="P7" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="52">
+      <c r="N7" s="286">
+        <v>771.62</v>
+      </c>
+      <c r="O7" s="287">
+        <v>66</v>
+      </c>
+      <c r="P7" s="249">
+        <f t="shared" si="1"/>
+        <v>-0.35000000000002274</v>
+      </c>
+      <c r="Q7" s="302">
+        <f t="shared" ref="Q7:Q50" si="2">O7-I7</f>
         <v>0</v>
       </c>
       <c r="R7" s="53"/>
@@ -7211,49 +7545,62 @@
       <c r="W7" s="13"/>
     </row>
     <row r="8" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="30" t="s">
-        <v>14</v>
+      <c r="B8" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="31"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="28">
+        <v>748.3</v>
+      </c>
+      <c r="G8" s="31">
+        <v>62</v>
+      </c>
       <c r="H8" s="224">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>748.3</v>
       </c>
       <c r="I8" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J8" s="219"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="214"/>
+      <c r="K8" s="289">
+        <v>748.3</v>
+      </c>
+      <c r="L8" s="282">
+        <v>62</v>
+      </c>
       <c r="M8" s="42"/>
-      <c r="N8" s="244"/>
-      <c r="O8" s="245"/>
-      <c r="P8" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="52">
-        <v>0</v>
-      </c>
-      <c r="R8" s="275"/>
-      <c r="S8" s="275"/>
+      <c r="N8" s="286">
+        <v>748.1</v>
+      </c>
+      <c r="O8" s="287">
+        <v>62</v>
+      </c>
+      <c r="P8" s="249">
+        <f t="shared" si="1"/>
+        <v>-0.19999999999993179</v>
+      </c>
+      <c r="Q8" s="302">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="328"/>
+      <c r="S8" s="328"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
     </row>
-    <row r="9" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:27" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="102"/>
+      <c r="E9" s="270"/>
       <c r="F9" s="28"/>
       <c r="G9" s="31"/>
       <c r="H9" s="224">
@@ -7265,16 +7612,17 @@
         <v>0</v>
       </c>
       <c r="J9" s="219"/>
-      <c r="K9" s="213"/>
+      <c r="K9" s="290"/>
       <c r="L9" s="214"/>
       <c r="M9" s="42"/>
       <c r="N9" s="244"/>
       <c r="O9" s="245"/>
-      <c r="P9" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="52">
+      <c r="P9" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="57"/>
@@ -7285,37 +7633,50 @@
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="30" t="s">
-        <v>16</v>
+      <c r="B10" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="31"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="28">
+        <v>696.32</v>
+      </c>
+      <c r="G10" s="31">
+        <v>19</v>
+      </c>
       <c r="H10" s="224">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>696.32</v>
       </c>
       <c r="I10" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J10" s="219"/>
-      <c r="K10" s="213"/>
-      <c r="L10" s="214"/>
+      <c r="K10" s="289">
+        <v>696.32</v>
+      </c>
+      <c r="L10" s="282">
+        <v>19</v>
+      </c>
       <c r="M10" s="42"/>
-      <c r="N10" s="244"/>
-      <c r="O10" s="245"/>
-      <c r="P10" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="52">
-        <v>0</v>
-      </c>
-      <c r="R10" s="276"/>
-      <c r="S10" s="276"/>
+      <c r="N10" s="286">
+        <v>696.34</v>
+      </c>
+      <c r="O10" s="287">
+        <v>19</v>
+      </c>
+      <c r="P10" s="249">
+        <f t="shared" si="1"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="Q10" s="302">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="329"/>
+      <c r="S10" s="329"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -7323,69 +7684,97 @@
     </row>
     <row r="11" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
+        <v>17</v>
+      </c>
+      <c r="C11" s="28">
+        <v>170.74</v>
+      </c>
+      <c r="D11" s="29">
+        <v>9</v>
+      </c>
       <c r="E11" s="30"/>
       <c r="F11" s="28"/>
       <c r="G11" s="31"/>
       <c r="H11" s="224">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>170.74</v>
       </c>
       <c r="I11" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J11" s="219"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="244"/>
-      <c r="O11" s="245"/>
+      <c r="K11" s="294">
+        <v>179.74</v>
+      </c>
+      <c r="L11" s="295">
+        <v>9</v>
+      </c>
+      <c r="M11" s="296"/>
+      <c r="N11" s="297">
+        <v>179.1</v>
+      </c>
+      <c r="O11" s="298">
+        <v>9</v>
+      </c>
       <c r="P11" s="241">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="52">
+        <v>8.3599999999999852</v>
+      </c>
+      <c r="Q11" s="44">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="255"/>
       <c r="S11" s="255"/>
-      <c r="T11" s="45"/>
+      <c r="T11" s="180" t="s">
+        <v>78</v>
+      </c>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
     </row>
     <row r="12" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="60"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="28"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="31"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="28">
+        <v>2039.56</v>
+      </c>
+      <c r="G12" s="31">
+        <v>75</v>
+      </c>
       <c r="H12" s="226">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2039.56</v>
       </c>
       <c r="I12" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J12" s="219"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="214"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="244"/>
-      <c r="O12" s="245"/>
-      <c r="P12" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="52">
+      <c r="K12" s="289">
+        <v>2039.56</v>
+      </c>
+      <c r="L12" s="282">
+        <v>75</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="286">
+        <v>2039.56</v>
+      </c>
+      <c r="O12" s="287">
+        <v>75</v>
+      </c>
+      <c r="P12" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="62"/>
@@ -7396,37 +7785,50 @@
       <c r="W12" s="13"/>
     </row>
     <row r="13" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="64" t="s">
-        <v>20</v>
+      <c r="B13" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="28">
+        <v>20</v>
+      </c>
+      <c r="G13" s="31">
+        <v>2</v>
+      </c>
       <c r="H13" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I13" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="219"/>
-      <c r="K13" s="213"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="244"/>
-      <c r="O13" s="245"/>
-      <c r="P13" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="52">
-        <v>0</v>
-      </c>
-      <c r="R13" s="277"/>
-      <c r="S13" s="277"/>
+      <c r="K13" s="289">
+        <v>20</v>
+      </c>
+      <c r="L13" s="282">
+        <v>2</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="286">
+        <v>20</v>
+      </c>
+      <c r="O13" s="287">
+        <v>2</v>
+      </c>
+      <c r="P13" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="302">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="330"/>
+      <c r="S13" s="330"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -7434,32 +7836,45 @@
     </row>
     <row r="14" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="60"/>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="31"/>
+      <c r="F14" s="60">
+        <v>50</v>
+      </c>
+      <c r="G14" s="31">
+        <v>5</v>
+      </c>
       <c r="H14" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I14" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J14" s="219"/>
-      <c r="K14" s="213"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="244"/>
-      <c r="O14" s="245"/>
-      <c r="P14" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="52">
+      <c r="K14" s="289">
+        <v>50</v>
+      </c>
+      <c r="L14" s="282">
+        <v>5</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="286">
+        <v>50</v>
+      </c>
+      <c r="O14" s="287">
+        <v>5</v>
+      </c>
+      <c r="P14" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="67"/>
@@ -7470,33 +7885,50 @@
       <c r="W14" s="13"/>
     </row>
     <row r="15" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
+      <c r="B15" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="28">
+        <v>826.04</v>
+      </c>
+      <c r="D15" s="29">
+        <v>24</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="31"/>
+      <c r="F15" s="28">
+        <v>3889.14</v>
+      </c>
+      <c r="G15" s="31">
+        <v>114</v>
+      </c>
       <c r="H15" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4715.18</v>
       </c>
       <c r="I15" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J15" s="219"/>
-      <c r="K15" s="248"/>
-      <c r="L15" s="214"/>
+      <c r="K15" s="301">
+        <v>4716.1000000000004</v>
+      </c>
+      <c r="L15" s="282">
+        <v>138</v>
+      </c>
       <c r="M15" s="42"/>
-      <c r="N15" s="244"/>
-      <c r="O15" s="245"/>
-      <c r="P15" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="52">
+      <c r="N15" s="297">
+        <v>4725.99</v>
+      </c>
+      <c r="O15" s="298">
+        <v>138</v>
+      </c>
+      <c r="P15" s="299">
+        <f t="shared" si="1"/>
+        <v>10.809999999999491</v>
+      </c>
+      <c r="Q15" s="300">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15" s="67"/>
@@ -7507,45 +7939,58 @@
       <c r="W15" s="13"/>
     </row>
     <row r="16" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="30" t="s">
-        <v>24</v>
+      <c r="B16" s="192" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="28">
+        <v>339.91</v>
+      </c>
+      <c r="G16" s="31">
+        <v>10</v>
+      </c>
       <c r="H16" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>339.91</v>
       </c>
       <c r="I16" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="219"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="214"/>
+      <c r="K16" s="289">
+        <v>339.91</v>
+      </c>
+      <c r="L16" s="282">
+        <v>10</v>
+      </c>
       <c r="M16" s="42"/>
-      <c r="N16" s="244"/>
-      <c r="O16" s="245"/>
-      <c r="P16" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="52">
+      <c r="N16" s="286">
+        <v>339.91</v>
+      </c>
+      <c r="O16" s="287">
+        <v>10</v>
+      </c>
+      <c r="P16" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R16" s="69"/>
       <c r="S16" s="70"/>
-      <c r="T16" s="45"/>
+      <c r="T16" s="180"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
     </row>
-    <row r="17" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="30" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -7561,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="219"/>
-      <c r="K17" s="213"/>
+      <c r="K17" s="290"/>
       <c r="L17" s="214"/>
       <c r="M17" s="42"/>
       <c r="N17" s="244"/>
@@ -7570,7 +8015,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="44">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R17" s="69"/>
@@ -7581,34 +8027,47 @@
       <c r="W17" s="13"/>
     </row>
     <row r="18" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="30" t="s">
-        <v>25</v>
+      <c r="B18" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="31"/>
+      <c r="F18" s="28">
+        <v>4860.43</v>
+      </c>
+      <c r="G18" s="31">
+        <v>199</v>
+      </c>
       <c r="H18" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4860.43</v>
       </c>
       <c r="I18" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="J18" s="219"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="214"/>
+      <c r="K18" s="289">
+        <v>4860.43</v>
+      </c>
+      <c r="L18" s="282">
+        <v>199</v>
+      </c>
       <c r="M18" s="42"/>
-      <c r="N18" s="244"/>
-      <c r="O18" s="245"/>
+      <c r="N18" s="244">
+        <v>3936.99</v>
+      </c>
+      <c r="O18" s="245">
+        <v>160</v>
+      </c>
       <c r="P18" s="241">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="52">
-        <v>0</v>
+        <v>-923.44000000000051</v>
+      </c>
+      <c r="Q18" s="44">
+        <f t="shared" si="2"/>
+        <v>-39</v>
       </c>
       <c r="R18" s="71"/>
       <c r="S18" s="72"/>
@@ -7619,33 +8078,46 @@
     </row>
     <row r="19" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="31"/>
+      <c r="F19" s="28">
+        <v>15840.34</v>
+      </c>
+      <c r="G19" s="31">
+        <v>583</v>
+      </c>
       <c r="H19" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15840.34</v>
       </c>
       <c r="I19" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="J19" s="219"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="214"/>
+      <c r="K19" s="289">
+        <v>15840.34</v>
+      </c>
+      <c r="L19" s="282">
+        <v>583</v>
+      </c>
       <c r="M19" s="42"/>
-      <c r="N19" s="244"/>
-      <c r="O19" s="245"/>
+      <c r="N19" s="244">
+        <v>15248.74</v>
+      </c>
+      <c r="O19" s="245">
+        <v>525</v>
+      </c>
       <c r="P19" s="241">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="52">
-        <v>0</v>
+        <v>-591.60000000000036</v>
+      </c>
+      <c r="Q19" s="44">
+        <f t="shared" si="2"/>
+        <v>-58</v>
       </c>
       <c r="R19" s="73"/>
       <c r="S19" s="74"/>
@@ -7654,9 +8126,9 @@
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
     </row>
-    <row r="20" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -7672,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="219"/>
-      <c r="K20" s="213"/>
+      <c r="K20" s="290"/>
       <c r="L20" s="214"/>
       <c r="M20" s="42"/>
       <c r="N20" s="244"/>
@@ -7681,11 +8153,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="52">
-        <v>0</v>
-      </c>
-      <c r="R20" s="278"/>
-      <c r="S20" s="278"/>
+      <c r="Q20" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="331"/>
+      <c r="S20" s="331"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -7693,32 +8166,45 @@
     </row>
     <row r="21" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="30" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="31"/>
+      <c r="F21" s="28">
+        <v>699.15</v>
+      </c>
+      <c r="G21" s="31">
+        <v>25</v>
+      </c>
       <c r="H21" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>699.15</v>
       </c>
       <c r="I21" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J21" s="219"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="214"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="244"/>
-      <c r="O21" s="245"/>
-      <c r="P21" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="52">
+      <c r="K21" s="289">
+        <v>699.15</v>
+      </c>
+      <c r="L21" s="282">
+        <v>25</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="286">
+        <v>699.14</v>
+      </c>
+      <c r="O21" s="287">
+        <v>25</v>
+      </c>
+      <c r="P21" s="249">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999909051E-3</v>
+      </c>
+      <c r="Q21" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="75"/>
@@ -7728,9 +8214,9 @@
       <c r="V21" s="77"/>
       <c r="W21" s="13"/>
     </row>
-    <row r="22" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
@@ -7746,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="219"/>
-      <c r="K22" s="213"/>
+      <c r="K22" s="290"/>
       <c r="L22" s="214"/>
       <c r="M22" s="42"/>
       <c r="N22" s="244"/>
@@ -7755,82 +8241,109 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="52">
-        <v>0</v>
-      </c>
-      <c r="R22" s="279"/>
-      <c r="S22" s="279"/>
+      <c r="Q22" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="332"/>
+      <c r="S22" s="332"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
       <c r="W22" s="13"/>
     </row>
     <row r="23" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="28">
+        <v>3303.73</v>
+      </c>
+      <c r="D23" s="29">
+        <v>164</v>
+      </c>
       <c r="E23" s="30"/>
       <c r="F23" s="28"/>
       <c r="G23" s="31"/>
       <c r="H23" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3303.73</v>
       </c>
       <c r="I23" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J23" s="219"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="214"/>
+      <c r="K23" s="289">
+        <v>3303.73</v>
+      </c>
+      <c r="L23" s="282">
+        <v>164</v>
+      </c>
       <c r="M23" s="42"/>
-      <c r="N23" s="244"/>
-      <c r="O23" s="245"/>
+      <c r="N23" s="244">
+        <v>3399.75</v>
+      </c>
+      <c r="O23" s="245">
+        <v>164</v>
+      </c>
       <c r="P23" s="241">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="52">
-        <v>0</v>
-      </c>
-      <c r="R23" s="280"/>
-      <c r="S23" s="280"/>
+        <v>96.019999999999982</v>
+      </c>
+      <c r="Q23" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="333"/>
+      <c r="S23" s="333"/>
       <c r="T23" s="45"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
     </row>
     <row r="24" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="86" t="s">
-        <v>34</v>
+      <c r="B24" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="31"/>
+      <c r="F24" s="28">
+        <v>1529.88</v>
+      </c>
+      <c r="G24" s="31">
+        <v>337</v>
+      </c>
       <c r="H24" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1529.88</v>
       </c>
       <c r="I24" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="J24" s="219"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="214"/>
+      <c r="K24" s="289">
+        <v>1529.98</v>
+      </c>
+      <c r="L24" s="282">
+        <v>337</v>
+      </c>
       <c r="M24" s="42"/>
-      <c r="N24" s="244"/>
-      <c r="O24" s="245"/>
+      <c r="N24" s="244">
+        <v>1480.04</v>
+      </c>
+      <c r="O24" s="245">
+        <v>326</v>
+      </c>
       <c r="P24" s="241">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="52">
-        <v>0</v>
+        <v>-49.840000000000146</v>
+      </c>
+      <c r="Q24" s="44">
+        <f t="shared" si="2"/>
+        <v>-11</v>
       </c>
       <c r="R24" s="81"/>
       <c r="S24" s="82"/>
@@ -7841,32 +8354,45 @@
     </row>
     <row r="25" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
+        <v>27</v>
+      </c>
+      <c r="C25" s="28">
+        <v>1575.57</v>
+      </c>
+      <c r="D25" s="29">
+        <v>65</v>
+      </c>
       <c r="E25" s="30"/>
       <c r="F25" s="28"/>
       <c r="G25" s="31"/>
       <c r="H25" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1575.57</v>
       </c>
       <c r="I25" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J25" s="219"/>
-      <c r="K25" s="238"/>
-      <c r="L25" s="214"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="244"/>
-      <c r="O25" s="245"/>
-      <c r="P25" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="52">
+      <c r="K25" s="289">
+        <v>1575.57</v>
+      </c>
+      <c r="L25" s="282">
+        <v>65</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="286">
+        <v>1575.74</v>
+      </c>
+      <c r="O25" s="287">
+        <v>65</v>
+      </c>
+      <c r="P25" s="249">
+        <f t="shared" si="1"/>
+        <v>0.17000000000007276</v>
+      </c>
+      <c r="Q25" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R25" s="83"/>
@@ -7876,9 +8402,9 @@
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
     </row>
-    <row r="26" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="30" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
@@ -7894,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="219"/>
-      <c r="K26" s="213"/>
+      <c r="K26" s="290"/>
       <c r="L26" s="214"/>
       <c r="M26" s="42"/>
       <c r="N26" s="244"/>
@@ -7903,44 +8429,58 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="52">
-        <v>0</v>
-      </c>
-      <c r="R26" s="281"/>
-      <c r="S26" s="281"/>
+      <c r="Q26" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="334"/>
+      <c r="S26" s="334"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
     </row>
     <row r="27" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="212" t="s">
-        <v>58</v>
+      <c r="B27" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="88"/>
+      <c r="F27" s="87">
+        <v>492.8</v>
+      </c>
+      <c r="G27" s="88">
+        <v>13</v>
+      </c>
       <c r="H27" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>492.8</v>
       </c>
       <c r="I27" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J27" s="219"/>
-      <c r="K27" s="238"/>
-      <c r="L27" s="214"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="244"/>
-      <c r="O27" s="245"/>
-      <c r="P27" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="52">
+      <c r="K27" s="289">
+        <v>492.8</v>
+      </c>
+      <c r="L27" s="282">
+        <v>13</v>
+      </c>
+      <c r="M27" s="34"/>
+      <c r="N27" s="286">
+        <v>492.8</v>
+      </c>
+      <c r="O27" s="287">
+        <v>13</v>
+      </c>
+      <c r="P27" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R27" s="211"/>
@@ -7951,33 +8491,50 @@
       <c r="W27" s="13"/>
     </row>
     <row r="28" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="212" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="28">
+        <v>1017.2</v>
+      </c>
+      <c r="D28" s="29">
+        <v>49</v>
+      </c>
       <c r="E28" s="30"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="88"/>
+      <c r="F28" s="87">
+        <v>2209.34</v>
+      </c>
+      <c r="G28" s="88">
+        <v>80</v>
+      </c>
       <c r="H28" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3226.54</v>
       </c>
       <c r="I28" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="J28" s="219"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="214"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="244"/>
-      <c r="O28" s="245"/>
-      <c r="P28" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="52">
+      <c r="K28" s="289">
+        <v>3226.89</v>
+      </c>
+      <c r="L28" s="282">
+        <v>129</v>
+      </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="286">
+        <v>3225.84</v>
+      </c>
+      <c r="O28" s="287">
+        <v>129</v>
+      </c>
+      <c r="P28" s="249">
+        <f t="shared" si="1"/>
+        <v>-0.6999999999998181</v>
+      </c>
+      <c r="Q28" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R28" s="211"/>
@@ -7988,33 +8545,46 @@
       <c r="W28" s="13"/>
     </row>
     <row r="29" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="212" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="28">
+        <v>3684.15</v>
+      </c>
+      <c r="D29" s="29">
+        <v>125</v>
+      </c>
       <c r="E29" s="30"/>
       <c r="F29" s="87"/>
       <c r="G29" s="88"/>
       <c r="H29" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3684.15</v>
       </c>
       <c r="I29" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J29" s="219"/>
-      <c r="K29" s="238"/>
-      <c r="L29" s="214"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="244"/>
-      <c r="O29" s="245"/>
-      <c r="P29" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="52">
+      <c r="K29" s="289">
+        <v>3684.25</v>
+      </c>
+      <c r="L29" s="282">
+        <v>125</v>
+      </c>
+      <c r="M29" s="34"/>
+      <c r="N29" s="286">
+        <v>3684.36</v>
+      </c>
+      <c r="O29" s="287">
+        <v>125</v>
+      </c>
+      <c r="P29" s="249">
+        <f t="shared" si="1"/>
+        <v>0.21000000000003638</v>
+      </c>
+      <c r="Q29" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R29" s="211"/>
@@ -8026,33 +8596,50 @@
     </row>
     <row r="30" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
+        <v>70</v>
+      </c>
+      <c r="C30" s="28">
+        <v>340</v>
+      </c>
+      <c r="D30" s="29">
+        <v>2</v>
+      </c>
       <c r="E30" s="30"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
+      <c r="F30" s="87">
+        <v>3900</v>
+      </c>
+      <c r="G30" s="88">
+        <v>195</v>
+      </c>
       <c r="H30" s="227">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4240</v>
       </c>
       <c r="I30" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="J30" s="219"/>
-      <c r="K30" s="213"/>
-      <c r="L30" s="214"/>
+      <c r="K30" s="289">
+        <v>4240</v>
+      </c>
+      <c r="L30" s="282">
+        <v>197</v>
+      </c>
       <c r="M30" s="42"/>
-      <c r="N30" s="244"/>
-      <c r="O30" s="245"/>
+      <c r="N30" s="244">
+        <v>4240</v>
+      </c>
+      <c r="O30" s="245">
+        <v>212</v>
+      </c>
       <c r="P30" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="52">
-        <v>0</v>
+      <c r="Q30" s="44">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="R30" s="90"/>
       <c r="S30" s="91"/>
@@ -8063,32 +8650,49 @@
     </row>
     <row r="31" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
+        <v>39</v>
+      </c>
+      <c r="C31" s="28">
+        <v>4406.6000000000004</v>
+      </c>
+      <c r="D31" s="29">
+        <v>162</v>
+      </c>
       <c r="E31" s="30"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="88"/>
+      <c r="F31" s="87">
+        <v>17693</v>
+      </c>
+      <c r="G31" s="88">
+        <v>650</v>
+      </c>
       <c r="H31" s="226">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22099.599999999999</v>
       </c>
       <c r="I31" s="228">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="J31" s="219"/>
-      <c r="K31" s="213"/>
-      <c r="L31" s="214"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="244"/>
-      <c r="O31" s="245"/>
-      <c r="P31" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="52">
+      <c r="K31" s="289">
+        <v>22096.880000000001</v>
+      </c>
+      <c r="L31" s="282">
+        <v>812</v>
+      </c>
+      <c r="M31" s="34"/>
+      <c r="N31" s="286">
+        <v>22102.639999999999</v>
+      </c>
+      <c r="O31" s="287">
+        <v>812</v>
+      </c>
+      <c r="P31" s="249">
+        <f t="shared" si="1"/>
+        <v>3.0400000000008731</v>
+      </c>
+      <c r="Q31" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R31" s="92"/>
@@ -8099,33 +8703,46 @@
       <c r="W31" s="13"/>
     </row>
     <row r="32" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
+      <c r="B32" s="212" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="28">
+        <v>350</v>
+      </c>
+      <c r="D32" s="29">
+        <v>35</v>
+      </c>
       <c r="E32" s="30"/>
       <c r="F32" s="87"/>
       <c r="G32" s="88"/>
       <c r="H32" s="226">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I32" s="228">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J32" s="219"/>
-      <c r="K32" s="213"/>
-      <c r="L32" s="214"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="244"/>
-      <c r="O32" s="245"/>
-      <c r="P32" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="52">
+      <c r="K32" s="289">
+        <v>350</v>
+      </c>
+      <c r="L32" s="282">
+        <v>35</v>
+      </c>
+      <c r="M32" s="34"/>
+      <c r="N32" s="286">
+        <v>350</v>
+      </c>
+      <c r="O32" s="287">
+        <v>35</v>
+      </c>
+      <c r="P32" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R32" s="92"/>
@@ -8136,33 +8753,46 @@
       <c r="W32" s="13"/>
     </row>
     <row r="33" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
+      <c r="B33" s="212" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="28">
+        <v>1200</v>
+      </c>
+      <c r="D33" s="29">
+        <v>120</v>
+      </c>
       <c r="E33" s="30"/>
       <c r="F33" s="87"/>
       <c r="G33" s="88"/>
       <c r="H33" s="226">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I33" s="228">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J33" s="219"/>
-      <c r="K33" s="213"/>
-      <c r="L33" s="214"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="244"/>
-      <c r="O33" s="245"/>
-      <c r="P33" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="52">
+      <c r="K33" s="289">
+        <v>1200</v>
+      </c>
+      <c r="L33" s="282">
+        <v>120</v>
+      </c>
+      <c r="M33" s="34"/>
+      <c r="N33" s="286">
+        <v>1200</v>
+      </c>
+      <c r="O33" s="287">
+        <v>120</v>
+      </c>
+      <c r="P33" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R33" s="94"/>
@@ -8173,33 +8803,46 @@
       <c r="W33" s="13"/>
     </row>
     <row r="34" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="190" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="97"/>
+      <c r="B34" s="265" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="96">
+        <v>810</v>
+      </c>
+      <c r="D34" s="97">
+        <v>81</v>
+      </c>
       <c r="E34" s="98"/>
       <c r="F34" s="96"/>
       <c r="G34" s="103"/>
       <c r="H34" s="226">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="I34" s="228">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="J34" s="219"/>
-      <c r="K34" s="213"/>
-      <c r="L34" s="214"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="244"/>
-      <c r="O34" s="245"/>
-      <c r="P34" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="52">
+      <c r="K34" s="289">
+        <v>810</v>
+      </c>
+      <c r="L34" s="282">
+        <v>81</v>
+      </c>
+      <c r="M34" s="34"/>
+      <c r="N34" s="286">
+        <v>810</v>
+      </c>
+      <c r="O34" s="287">
+        <v>81</v>
+      </c>
+      <c r="P34" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R34" s="100"/>
@@ -8209,9 +8852,9 @@
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
     </row>
-    <row r="35" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="189" t="s">
-        <v>59</v>
+    <row r="35" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="102" t="s">
+        <v>32</v>
       </c>
       <c r="C35" s="96"/>
       <c r="D35" s="97"/>
@@ -8227,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="219"/>
-      <c r="K35" s="213"/>
+      <c r="K35" s="290"/>
       <c r="L35" s="214"/>
       <c r="M35" s="42"/>
       <c r="N35" s="244"/>
@@ -8236,7 +8879,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="52">
+      <c r="Q35" s="44">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R35" s="104"/>
@@ -8246,9 +8890,9 @@
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
     </row>
-    <row r="36" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="102" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C36" s="96"/>
       <c r="D36" s="97"/>
@@ -8264,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="219"/>
-      <c r="K36" s="213"/>
+      <c r="K36" s="290"/>
       <c r="L36" s="214"/>
       <c r="M36" s="42"/>
       <c r="N36" s="244"/>
@@ -8273,7 +8917,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="52">
+      <c r="Q36" s="44">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R36" s="104"/>
@@ -8283,13 +8928,13 @@
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
     </row>
-    <row r="37" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="110" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="111"/>
+      <c r="E37" s="102"/>
       <c r="F37" s="96"/>
       <c r="G37" s="103"/>
       <c r="H37" s="226">
@@ -8301,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="219"/>
-      <c r="K37" s="213"/>
+      <c r="K37" s="290"/>
       <c r="L37" s="214"/>
       <c r="M37" s="42"/>
       <c r="N37" s="244"/>
@@ -8310,7 +8955,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="52">
+      <c r="Q37" s="44">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R37" s="107"/>
@@ -8320,10 +8966,10 @@
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
     </row>
-    <row r="38" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="109"/>
-      <c r="B38" s="191" t="s">
-        <v>43</v>
+      <c r="B38" s="110" t="s">
+        <v>38</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
@@ -8339,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="219"/>
-      <c r="K38" s="213"/>
+      <c r="K38" s="290"/>
       <c r="L38" s="214"/>
       <c r="M38" s="42"/>
       <c r="N38" s="244"/>
@@ -8348,7 +8994,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="52">
+      <c r="Q38" s="44">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R38" s="107"/>
@@ -8359,33 +9006,46 @@
       <c r="W38" s="13"/>
     </row>
     <row r="39" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="106" t="s">
-        <v>60</v>
+      <c r="B39" s="264" t="s">
+        <v>36</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
       <c r="E39" s="102"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="103"/>
+      <c r="F39" s="96">
+        <v>6310.5</v>
+      </c>
+      <c r="G39" s="103">
+        <v>7</v>
+      </c>
       <c r="H39" s="229">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6310.5</v>
       </c>
       <c r="I39" s="230">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J39" s="219"/>
-      <c r="K39" s="213"/>
-      <c r="L39" s="214"/>
+      <c r="K39" s="289">
+        <v>6310.5</v>
+      </c>
+      <c r="L39" s="282">
+        <v>7</v>
+      </c>
       <c r="M39" s="42"/>
-      <c r="N39" s="244"/>
-      <c r="O39" s="245"/>
-      <c r="P39" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="52">
+      <c r="N39" s="286">
+        <v>6310.5</v>
+      </c>
+      <c r="O39" s="287">
+        <v>7</v>
+      </c>
+      <c r="P39" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="302">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R39" s="114"/>
@@ -8396,356 +9056,723 @@
       <c r="W39" s="13"/>
     </row>
     <row r="40" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="192" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="111"/>
+      <c r="B40" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="115">
+        <v>4183.6400000000003</v>
+      </c>
+      <c r="D40" s="29">
+        <v>184</v>
+      </c>
+      <c r="E40" s="102"/>
       <c r="F40" s="96"/>
       <c r="G40" s="103"/>
-      <c r="H40" s="229">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="230">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H40" s="303">
+        <f t="shared" si="0"/>
+        <v>4183.6400000000003</v>
+      </c>
+      <c r="I40" s="304">
+        <f t="shared" si="0"/>
+        <v>184</v>
       </c>
       <c r="J40" s="219"/>
-      <c r="K40" s="213"/>
-      <c r="L40" s="214"/>
+      <c r="K40" s="290">
+        <v>4161.12</v>
+      </c>
+      <c r="L40" s="214">
+        <v>184</v>
+      </c>
       <c r="M40" s="42"/>
-      <c r="N40" s="244"/>
-      <c r="O40" s="245"/>
+      <c r="N40" s="244">
+        <v>3855.13</v>
+      </c>
+      <c r="O40" s="245">
+        <v>170</v>
+      </c>
       <c r="P40" s="241">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="52">
-        <v>0</v>
+        <v>-328.51000000000022</v>
+      </c>
+      <c r="Q40" s="44">
+        <f t="shared" si="2"/>
+        <v>-14</v>
       </c>
       <c r="R40" s="116"/>
       <c r="S40" s="117"/>
-      <c r="T40" s="45"/>
+      <c r="T40" s="180" t="s">
+        <v>79</v>
+      </c>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
     </row>
-    <row r="41" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="231">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="232">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="220"/>
-      <c r="K41" s="215"/>
-      <c r="L41" s="216"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="246"/>
-      <c r="O41" s="247"/>
-      <c r="P41" s="298">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="52">
-        <v>0</v>
-      </c>
-      <c r="R41" s="129"/>
-      <c r="S41" s="130"/>
+    <row r="41" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="266" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="257"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="260"/>
+      <c r="H41" s="259">
+        <f t="shared" ref="H41:H42" si="3">F41+C41</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="230">
+        <f t="shared" ref="I41:I42" si="4">G41+D41</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="219"/>
+      <c r="K41" s="291"/>
+      <c r="L41" s="258"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="244"/>
+      <c r="O41" s="245"/>
+      <c r="P41" s="241">
+        <f t="shared" ref="P41:P42" si="5">N41-H41</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="116"/>
+      <c r="S41" s="117"/>
       <c r="T41" s="45"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
     </row>
-    <row r="42" spans="1:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="131" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="132"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="137">
-        <f t="shared" ref="H42:I42" si="2">F42+C42</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="138">
+    <row r="42" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="266" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="257">
+        <v>5657.3</v>
+      </c>
+      <c r="D42" s="97">
+        <v>192</v>
+      </c>
+      <c r="E42" s="111"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="259">
+        <f t="shared" si="3"/>
+        <v>5657.3</v>
+      </c>
+      <c r="I42" s="230">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="J42" s="220"/>
+      <c r="K42" s="293">
+        <v>5657.3</v>
+      </c>
+      <c r="L42" s="281">
+        <v>192</v>
+      </c>
+      <c r="M42" s="305"/>
+      <c r="N42" s="286">
+        <v>5657.3</v>
+      </c>
+      <c r="O42" s="287">
+        <v>192</v>
+      </c>
+      <c r="P42" s="249">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="302">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="139"/>
-      <c r="O42" s="140"/>
-      <c r="P42" s="141">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="142">
-        <f>O42-I42</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="143"/>
-      <c r="S42" s="144"/>
+      <c r="R42" s="129"/>
+      <c r="S42" s="130"/>
       <c r="T42" s="45"/>
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
       <c r="W42" s="13"/>
     </row>
-    <row r="43" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="145"/>
-      <c r="D43" s="147"/>
-      <c r="F43" s="268" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="268"/>
-      <c r="H43" s="148">
-        <f>SUM(H5:H34)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="149">
-        <f>SUM(I5:I34)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="150"/>
-      <c r="N43" s="151">
-        <f>SUM(N5:N41)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="P43" s="153"/>
-      <c r="Q43" s="154"/>
-      <c r="R43" s="155"/>
-      <c r="S43" s="42"/>
+    <row r="43" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="267" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="115"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="261"/>
+      <c r="H43" s="259">
+        <f t="shared" ref="H43:H50" si="6">F43+C43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="230">
+        <f t="shared" ref="I43:I50" si="7">G43+D43</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="219"/>
+      <c r="K43" s="293"/>
+      <c r="L43" s="281"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="244"/>
+      <c r="O43" s="245"/>
+      <c r="P43" s="241">
+        <f t="shared" ref="P43:P50" si="8">N43-H43</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="107"/>
+      <c r="S43" s="108"/>
       <c r="T43" s="45"/>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="P44" s="157"/>
-      <c r="Q44" s="158"/>
-      <c r="R44" s="159"/>
+    <row r="44" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="262" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="115"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="261"/>
+      <c r="H44" s="259">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="230">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="219"/>
+      <c r="K44" s="292"/>
+      <c r="L44" s="216"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="244"/>
+      <c r="O44" s="245"/>
+      <c r="P44" s="241">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="107"/>
+      <c r="S44" s="108"/>
       <c r="T44" s="45"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
       <c r="W44" s="13"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="77"/>
-      <c r="C45" s="160"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="1"/>
-      <c r="T45" s="12"/>
+    <row r="45" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="263" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="115"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="28">
+        <v>438.08</v>
+      </c>
+      <c r="G45" s="261">
+        <v>18</v>
+      </c>
+      <c r="H45" s="259">
+        <f t="shared" si="6"/>
+        <v>438.08</v>
+      </c>
+      <c r="I45" s="230">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J45" s="219"/>
+      <c r="K45" s="293">
+        <v>438.08</v>
+      </c>
+      <c r="L45" s="281">
+        <v>18</v>
+      </c>
+      <c r="M45" s="305"/>
+      <c r="N45" s="286">
+        <v>438.08</v>
+      </c>
+      <c r="O45" s="287">
+        <v>18</v>
+      </c>
+      <c r="P45" s="249">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="302">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="107"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="45"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
       <c r="W45" s="13"/>
     </row>
-    <row r="46" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="162" t="s">
+    <row r="46" spans="1:23" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="263" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="115">
+        <v>1435.77</v>
+      </c>
+      <c r="D46" s="29">
+        <v>56</v>
+      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="261"/>
+      <c r="H46" s="259">
+        <f t="shared" si="6"/>
+        <v>1435.77</v>
+      </c>
+      <c r="I46" s="230">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="J46" s="219"/>
+      <c r="K46" s="293">
+        <v>1435.77</v>
+      </c>
+      <c r="L46" s="281">
+        <v>56</v>
+      </c>
+      <c r="M46" s="124"/>
+      <c r="N46" s="244">
+        <v>1437.77</v>
+      </c>
+      <c r="O46" s="245">
+        <v>58</v>
+      </c>
+      <c r="P46" s="241">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q46" s="44">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R46" s="107"/>
+      <c r="S46" s="108"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+    </row>
+    <row r="47" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="263" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="115">
+        <v>1115.48</v>
+      </c>
+      <c r="D47" s="29">
+        <v>37</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="261"/>
+      <c r="H47" s="259">
+        <f t="shared" si="6"/>
+        <v>1115.48</v>
+      </c>
+      <c r="I47" s="230">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="J47" s="219"/>
+      <c r="K47" s="293">
+        <v>1115.56</v>
+      </c>
+      <c r="L47" s="281">
+        <v>37</v>
+      </c>
+      <c r="M47" s="305"/>
+      <c r="N47" s="286">
+        <v>1115.49</v>
+      </c>
+      <c r="O47" s="287">
+        <v>37</v>
+      </c>
+      <c r="P47" s="249">
+        <f t="shared" si="8"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="Q47" s="302">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="107"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+    </row>
+    <row r="48" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="268" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="271"/>
+      <c r="D48" s="273"/>
+      <c r="E48" s="275"/>
+      <c r="F48" s="277"/>
+      <c r="G48" s="279"/>
+      <c r="H48" s="259">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="230">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="219"/>
+      <c r="K48" s="292"/>
+      <c r="L48" s="216"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="244"/>
+      <c r="O48" s="245"/>
+      <c r="P48" s="241">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="107"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+    </row>
+    <row r="49" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="263"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="259">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="230">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="219"/>
+      <c r="K49" s="292"/>
+      <c r="L49" s="216"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="244"/>
+      <c r="O49" s="245"/>
+      <c r="P49" s="241">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="107"/>
+      <c r="S49" s="108"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+    </row>
+    <row r="50" spans="2:23" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="269"/>
+      <c r="C50" s="272"/>
+      <c r="D50" s="274"/>
+      <c r="E50" s="276"/>
+      <c r="F50" s="278"/>
+      <c r="G50" s="280"/>
+      <c r="H50" s="259">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="230">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="292"/>
+      <c r="L50" s="216"/>
+      <c r="M50" s="124"/>
+      <c r="N50" s="246"/>
+      <c r="O50" s="247"/>
+      <c r="P50" s="241">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="143"/>
+      <c r="S50" s="144"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+    </row>
+    <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="145"/>
+      <c r="D51" s="147"/>
+      <c r="F51" s="351" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="351"/>
+      <c r="H51" s="148">
+        <f>SUM(H5:H34)</f>
+        <v>74525.02</v>
+      </c>
+      <c r="I51" s="149">
+        <f>SUM(I5:I34)</f>
+        <v>3341</v>
+      </c>
+      <c r="J51" s="149"/>
+      <c r="K51" s="149"/>
+      <c r="L51" s="149"/>
+      <c r="M51" s="150"/>
+      <c r="N51" s="151">
+        <f>SUM(N5:N42)</f>
+        <v>88858.87000000001</v>
+      </c>
+      <c r="O51" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="P51" s="153"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="155"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="P52" s="157"/>
+      <c r="Q52" s="158"/>
+      <c r="R52" s="159"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B53" s="77"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="1"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+    </row>
+    <row r="54" spans="2:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="163"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="165"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="167"/>
-      <c r="P46" s="168"/>
-      <c r="Q46" s="169"/>
-    </row>
-    <row r="47" spans="1:23" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="170"/>
-      <c r="D47" s="209" t="s">
+      <c r="D54" s="163"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="165"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="166"/>
+      <c r="M54" s="166"/>
+      <c r="N54" s="166"/>
+      <c r="O54" s="167"/>
+      <c r="P54" s="168"/>
+      <c r="Q54" s="169"/>
+    </row>
+    <row r="55" spans="2:23" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="170"/>
+      <c r="D55" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="200"/>
-      <c r="F47" s="200"/>
-      <c r="G47" s="201"/>
-      <c r="H47" s="201"/>
-      <c r="I47" s="201"/>
-      <c r="J47" s="201"/>
-      <c r="K47" s="201"/>
-      <c r="L47" s="201"/>
-      <c r="M47" s="201"/>
-      <c r="N47" s="201"/>
-      <c r="O47" s="202"/>
-      <c r="P47" s="203"/>
-      <c r="Q47" s="204"/>
-      <c r="R47" s="171"/>
-      <c r="S47" s="172"/>
-      <c r="T47" s="173"/>
-      <c r="U47" s="174"/>
-    </row>
-    <row r="48" spans="1:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="175"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="254"/>
-      <c r="E48" s="251"/>
-      <c r="F48" s="251"/>
-      <c r="G48" s="251"/>
-      <c r="H48" s="251"/>
-      <c r="I48" s="251"/>
-      <c r="J48" s="251"/>
-      <c r="K48" s="251"/>
-      <c r="L48" s="251"/>
-      <c r="M48" s="251"/>
-      <c r="N48" s="251"/>
-      <c r="O48" s="251"/>
-      <c r="P48" s="252"/>
-      <c r="Q48" s="253"/>
-    </row>
-    <row r="49" spans="2:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="175"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="177"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="178"/>
-      <c r="P49" s="179"/>
-      <c r="Q49" s="169"/>
-    </row>
-    <row r="50" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="175"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="181"/>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="181"/>
-      <c r="I50" s="181"/>
-      <c r="J50" s="181"/>
-      <c r="K50" s="181"/>
-      <c r="L50" s="181"/>
-      <c r="M50" s="181"/>
-      <c r="N50" s="181"/>
-      <c r="O50" s="181"/>
-      <c r="P50" s="179"/>
-      <c r="Q50" s="169"/>
-    </row>
-    <row r="51" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="175"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="182"/>
-      <c r="E51" s="183"/>
-      <c r="F51" s="183"/>
-      <c r="G51" s="183"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="183"/>
-      <c r="J51" s="183"/>
-      <c r="K51" s="183"/>
-      <c r="L51" s="183"/>
-      <c r="M51" s="183"/>
-      <c r="N51" s="183"/>
-      <c r="O51" s="178"/>
-      <c r="P51" s="184"/>
-      <c r="Q51" s="185"/>
-    </row>
-    <row r="52" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="175"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="186"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="178"/>
-      <c r="P52" s="184"/>
-      <c r="Q52" s="185"/>
-    </row>
-    <row r="53" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="175"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="187"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="178"/>
-      <c r="P53" s="184"/>
-      <c r="Q53" s="185"/>
-    </row>
-    <row r="54" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="175"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="188"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="178"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B55" s="1"/>
+      <c r="E55" s="200"/>
+      <c r="F55" s="200"/>
+      <c r="G55" s="201"/>
+      <c r="H55" s="201"/>
+      <c r="I55" s="201"/>
+      <c r="J55" s="201"/>
+      <c r="K55" s="201"/>
+      <c r="L55" s="201"/>
+      <c r="M55" s="201"/>
+      <c r="N55" s="201"/>
+      <c r="O55" s="202"/>
+      <c r="P55" s="203"/>
+      <c r="Q55" s="204"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="172"/>
+      <c r="T55" s="173"/>
+      <c r="U55" s="174"/>
+    </row>
+    <row r="56" spans="2:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="175"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="254"/>
+      <c r="E56" s="251"/>
+      <c r="F56" s="251"/>
+      <c r="G56" s="251"/>
+      <c r="H56" s="251"/>
+      <c r="I56" s="251"/>
+      <c r="J56" s="251"/>
+      <c r="K56" s="251"/>
+      <c r="L56" s="251"/>
+      <c r="M56" s="251"/>
+      <c r="N56" s="251"/>
+      <c r="O56" s="251"/>
+      <c r="P56" s="252"/>
+      <c r="Q56" s="253"/>
+    </row>
+    <row r="57" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="175"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="178"/>
+      <c r="P57" s="179"/>
+      <c r="Q57" s="169"/>
+    </row>
+    <row r="58" spans="2:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="175"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="180"/>
+      <c r="E58" s="181"/>
+      <c r="F58" s="181"/>
+      <c r="G58" s="181"/>
+      <c r="H58" s="181"/>
+      <c r="I58" s="181"/>
+      <c r="J58" s="181"/>
+      <c r="K58" s="181"/>
+      <c r="L58" s="181"/>
+      <c r="M58" s="181"/>
+      <c r="N58" s="181"/>
+      <c r="O58" s="181"/>
+      <c r="P58" s="179"/>
+      <c r="Q58" s="169"/>
+    </row>
+    <row r="59" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="175"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="182"/>
+      <c r="E59" s="183"/>
+      <c r="F59" s="183"/>
+      <c r="G59" s="183"/>
+      <c r="H59" s="183"/>
+      <c r="I59" s="183"/>
+      <c r="J59" s="183"/>
+      <c r="K59" s="183"/>
+      <c r="L59" s="183"/>
+      <c r="M59" s="183"/>
+      <c r="N59" s="183"/>
+      <c r="O59" s="178"/>
+      <c r="P59" s="184"/>
+      <c r="Q59" s="185"/>
+    </row>
+    <row r="60" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="175"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="178"/>
+      <c r="P60" s="184"/>
+      <c r="Q60" s="185"/>
+    </row>
+    <row r="61" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="175"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="187"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="178"/>
+      <c r="P61" s="184"/>
+      <c r="Q61" s="185"/>
+    </row>
+    <row r="62" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="175"/>
+      <c r="C62" s="176"/>
+      <c r="D62" s="188"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="178"/>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="B5:G50">
+    <sortCondition ref="B5:B50"/>
+  </sortState>
   <mergeCells count="20">
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R26:S26"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:I2"/>
@@ -8774,13 +9801,2558 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y32" sqref="X32:Y32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="146" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="156" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="161"/>
+    <col min="17" max="17" width="10" style="146" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="310"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="335">
+        <v>45017</v>
+      </c>
+      <c r="C2" s="336"/>
+      <c r="F2" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="338"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="340"/>
+      <c r="J2" s="341" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="341"/>
+      <c r="L2" s="342"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="314" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="314"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+    </row>
+    <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="14"/>
+      <c r="C3" s="345" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="346"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="347" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="348"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="349" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="343"/>
+      <c r="K3" s="343"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="314"/>
+      <c r="P3" s="322" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="323"/>
+      <c r="R3" s="324" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="325"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+    </row>
+    <row r="4" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="234" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="350"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="237" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="222"/>
+      <c r="N4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+    </row>
+    <row r="5" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="28">
+        <v>335.3</v>
+      </c>
+      <c r="G5" s="31">
+        <v>10</v>
+      </c>
+      <c r="H5" s="223">
+        <f t="shared" ref="H5:I40" si="0">F5+C5</f>
+        <v>335.3</v>
+      </c>
+      <c r="I5" s="41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="219"/>
+      <c r="K5" s="288">
+        <v>335.3</v>
+      </c>
+      <c r="L5" s="285">
+        <v>10</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="283">
+        <v>335.03</v>
+      </c>
+      <c r="O5" s="284">
+        <v>10</v>
+      </c>
+      <c r="P5" s="308">
+        <f t="shared" ref="P5:Q50" si="1">N5-H5</f>
+        <v>-0.27000000000003865</v>
+      </c>
+      <c r="Q5" s="302">
+        <f>O5-I5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="326"/>
+      <c r="S5" s="326"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+    </row>
+    <row r="6" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="270">
+        <v>172.79</v>
+      </c>
+      <c r="D6" s="29">
+        <v>14</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="28">
+        <v>552.76</v>
+      </c>
+      <c r="G6" s="31">
+        <v>46</v>
+      </c>
+      <c r="H6" s="223">
+        <f t="shared" si="0"/>
+        <v>725.55</v>
+      </c>
+      <c r="I6" s="41">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J6" s="219"/>
+      <c r="K6" s="289">
+        <v>725.55</v>
+      </c>
+      <c r="L6" s="282">
+        <v>60</v>
+      </c>
+      <c r="M6" s="42"/>
+      <c r="N6" s="244">
+        <v>684.25</v>
+      </c>
+      <c r="O6" s="245">
+        <v>58</v>
+      </c>
+      <c r="P6" s="240">
+        <f t="shared" si="1"/>
+        <v>-41.299999999999955</v>
+      </c>
+      <c r="Q6" s="44">
+        <f>O6-I6</f>
+        <v>-2</v>
+      </c>
+      <c r="R6" s="327"/>
+      <c r="S6" s="327"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="28">
+        <v>771.97</v>
+      </c>
+      <c r="G7" s="31">
+        <v>66</v>
+      </c>
+      <c r="H7" s="223">
+        <f t="shared" si="0"/>
+        <v>771.97</v>
+      </c>
+      <c r="I7" s="41">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="J7" s="219"/>
+      <c r="K7" s="289">
+        <v>771.97</v>
+      </c>
+      <c r="L7" s="282">
+        <v>66</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="286">
+        <v>771.62</v>
+      </c>
+      <c r="O7" s="287">
+        <v>66</v>
+      </c>
+      <c r="P7" s="249">
+        <f t="shared" si="1"/>
+        <v>-0.35000000000002274</v>
+      </c>
+      <c r="Q7" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="53"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+    </row>
+    <row r="8" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="28">
+        <v>748.3</v>
+      </c>
+      <c r="G8" s="31">
+        <v>62</v>
+      </c>
+      <c r="H8" s="224">
+        <f t="shared" si="0"/>
+        <v>748.3</v>
+      </c>
+      <c r="I8" s="41">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="J8" s="219"/>
+      <c r="K8" s="289">
+        <v>748.3</v>
+      </c>
+      <c r="L8" s="282">
+        <v>62</v>
+      </c>
+      <c r="M8" s="42"/>
+      <c r="N8" s="286">
+        <v>748.1</v>
+      </c>
+      <c r="O8" s="287">
+        <v>62</v>
+      </c>
+      <c r="P8" s="249">
+        <f t="shared" si="1"/>
+        <v>-0.19999999999993179</v>
+      </c>
+      <c r="Q8" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="328"/>
+      <c r="S8" s="328"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+    </row>
+    <row r="9" spans="2:27" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="224">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="219"/>
+      <c r="K9" s="290"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="244"/>
+      <c r="O9" s="245"/>
+      <c r="P9" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="28">
+        <v>696.32</v>
+      </c>
+      <c r="G10" s="31">
+        <v>19</v>
+      </c>
+      <c r="H10" s="224">
+        <f t="shared" si="0"/>
+        <v>696.32</v>
+      </c>
+      <c r="I10" s="225">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J10" s="219"/>
+      <c r="K10" s="289">
+        <v>696.32</v>
+      </c>
+      <c r="L10" s="282">
+        <v>19</v>
+      </c>
+      <c r="M10" s="42"/>
+      <c r="N10" s="286">
+        <v>696.34</v>
+      </c>
+      <c r="O10" s="287">
+        <v>19</v>
+      </c>
+      <c r="P10" s="249">
+        <f t="shared" si="1"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="Q10" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="329"/>
+      <c r="S10" s="329"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+    </row>
+    <row r="11" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="28">
+        <v>170.74</v>
+      </c>
+      <c r="D11" s="29">
+        <v>9</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="224">
+        <f t="shared" si="0"/>
+        <v>170.74</v>
+      </c>
+      <c r="I11" s="225">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J11" s="219"/>
+      <c r="K11" s="294">
+        <v>179.74</v>
+      </c>
+      <c r="L11" s="295">
+        <v>9</v>
+      </c>
+      <c r="M11" s="296"/>
+      <c r="N11" s="297">
+        <v>179.1</v>
+      </c>
+      <c r="O11" s="298">
+        <v>9</v>
+      </c>
+      <c r="P11" s="299">
+        <f t="shared" si="1"/>
+        <v>8.3599999999999852</v>
+      </c>
+      <c r="Q11" s="300">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="256"/>
+      <c r="S11" s="256"/>
+      <c r="T11" s="180" t="s">
+        <v>78</v>
+      </c>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="28">
+        <v>2039.56</v>
+      </c>
+      <c r="G12" s="31">
+        <v>75</v>
+      </c>
+      <c r="H12" s="226">
+        <f t="shared" si="0"/>
+        <v>2039.56</v>
+      </c>
+      <c r="I12" s="225">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="J12" s="219"/>
+      <c r="K12" s="289">
+        <v>2039.56</v>
+      </c>
+      <c r="L12" s="282">
+        <v>75</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="286">
+        <v>2039.56</v>
+      </c>
+      <c r="O12" s="287">
+        <v>75</v>
+      </c>
+      <c r="P12" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="62"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+    </row>
+    <row r="13" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="28">
+        <v>20</v>
+      </c>
+      <c r="G13" s="31">
+        <v>2</v>
+      </c>
+      <c r="H13" s="227">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I13" s="225">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="219"/>
+      <c r="K13" s="289">
+        <v>20</v>
+      </c>
+      <c r="L13" s="282">
+        <v>2</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="286">
+        <v>20</v>
+      </c>
+      <c r="O13" s="287">
+        <v>2</v>
+      </c>
+      <c r="P13" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="330"/>
+      <c r="S13" s="330"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="13"/>
+    </row>
+    <row r="14" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="60">
+        <v>50</v>
+      </c>
+      <c r="G14" s="31">
+        <v>5</v>
+      </c>
+      <c r="H14" s="227">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I14" s="225">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="219"/>
+      <c r="K14" s="289">
+        <v>50</v>
+      </c>
+      <c r="L14" s="282">
+        <v>5</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="286">
+        <v>50</v>
+      </c>
+      <c r="O14" s="287">
+        <v>5</v>
+      </c>
+      <c r="P14" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="67"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+    </row>
+    <row r="15" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="28">
+        <v>826.04</v>
+      </c>
+      <c r="D15" s="29">
+        <v>24</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="28">
+        <v>3889.14</v>
+      </c>
+      <c r="G15" s="31">
+        <v>114</v>
+      </c>
+      <c r="H15" s="227">
+        <f t="shared" si="0"/>
+        <v>4715.18</v>
+      </c>
+      <c r="I15" s="225">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="J15" s="219"/>
+      <c r="K15" s="301">
+        <v>4716.1000000000004</v>
+      </c>
+      <c r="L15" s="282">
+        <v>138</v>
+      </c>
+      <c r="M15" s="42"/>
+      <c r="N15" s="244">
+        <v>4725.99</v>
+      </c>
+      <c r="O15" s="245">
+        <v>138</v>
+      </c>
+      <c r="P15" s="241">
+        <f t="shared" si="1"/>
+        <v>10.809999999999491</v>
+      </c>
+      <c r="Q15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="67"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="192" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="28">
+        <v>339.91</v>
+      </c>
+      <c r="G16" s="31">
+        <v>10</v>
+      </c>
+      <c r="H16" s="227">
+        <f t="shared" si="0"/>
+        <v>339.91</v>
+      </c>
+      <c r="I16" s="225">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="219"/>
+      <c r="K16" s="289">
+        <v>339.91</v>
+      </c>
+      <c r="L16" s="282">
+        <v>10</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="286">
+        <v>339.91</v>
+      </c>
+      <c r="O16" s="287">
+        <v>10</v>
+      </c>
+      <c r="P16" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="69"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="180"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+    </row>
+    <row r="17" spans="2:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="227">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="219"/>
+      <c r="K17" s="290"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="244"/>
+      <c r="O17" s="245"/>
+      <c r="P17" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="69"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+    </row>
+    <row r="18" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="28">
+        <v>4860.43</v>
+      </c>
+      <c r="G18" s="31">
+        <v>199</v>
+      </c>
+      <c r="H18" s="227">
+        <f t="shared" si="0"/>
+        <v>4860.43</v>
+      </c>
+      <c r="I18" s="225">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="J18" s="219"/>
+      <c r="K18" s="289">
+        <v>4860.43</v>
+      </c>
+      <c r="L18" s="282">
+        <v>199</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="244">
+        <v>3936.99</v>
+      </c>
+      <c r="O18" s="245">
+        <v>160</v>
+      </c>
+      <c r="P18" s="241">
+        <f t="shared" si="1"/>
+        <v>-923.44000000000051</v>
+      </c>
+      <c r="Q18" s="44">
+        <f t="shared" si="1"/>
+        <v>-39</v>
+      </c>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="28">
+        <v>15840.34</v>
+      </c>
+      <c r="G19" s="31">
+        <v>583</v>
+      </c>
+      <c r="H19" s="227">
+        <f t="shared" si="0"/>
+        <v>15840.34</v>
+      </c>
+      <c r="I19" s="225">
+        <f t="shared" si="0"/>
+        <v>583</v>
+      </c>
+      <c r="J19" s="219"/>
+      <c r="K19" s="289">
+        <v>15840.34</v>
+      </c>
+      <c r="L19" s="282">
+        <v>583</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="244">
+        <v>15248.74</v>
+      </c>
+      <c r="O19" s="245">
+        <v>525</v>
+      </c>
+      <c r="P19" s="241">
+        <f t="shared" si="1"/>
+        <v>-591.60000000000036</v>
+      </c>
+      <c r="Q19" s="44">
+        <f t="shared" si="1"/>
+        <v>-58</v>
+      </c>
+      <c r="R19" s="73"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+    </row>
+    <row r="20" spans="2:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="227">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="219"/>
+      <c r="K20" s="290"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="244"/>
+      <c r="O20" s="245"/>
+      <c r="P20" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="331"/>
+      <c r="S20" s="331"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="28">
+        <v>699.15</v>
+      </c>
+      <c r="G21" s="31">
+        <v>25</v>
+      </c>
+      <c r="H21" s="227">
+        <f t="shared" si="0"/>
+        <v>699.15</v>
+      </c>
+      <c r="I21" s="225">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J21" s="219"/>
+      <c r="K21" s="289">
+        <v>699.15</v>
+      </c>
+      <c r="L21" s="282">
+        <v>25</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="286">
+        <v>699.14</v>
+      </c>
+      <c r="O21" s="287">
+        <v>25</v>
+      </c>
+      <c r="P21" s="249">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999909051E-3</v>
+      </c>
+      <c r="Q21" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="75"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="2:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="227">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="219"/>
+      <c r="K22" s="290"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="244"/>
+      <c r="O22" s="245"/>
+      <c r="P22" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="332"/>
+      <c r="S22" s="332"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="28">
+        <v>3303.73</v>
+      </c>
+      <c r="D23" s="29">
+        <v>164</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="227">
+        <f t="shared" si="0"/>
+        <v>3303.73</v>
+      </c>
+      <c r="I23" s="225">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="J23" s="219"/>
+      <c r="K23" s="289">
+        <v>3303.73</v>
+      </c>
+      <c r="L23" s="282">
+        <v>164</v>
+      </c>
+      <c r="M23" s="42"/>
+      <c r="N23" s="244">
+        <v>3399.75</v>
+      </c>
+      <c r="O23" s="245">
+        <v>164</v>
+      </c>
+      <c r="P23" s="241">
+        <f t="shared" si="1"/>
+        <v>96.019999999999982</v>
+      </c>
+      <c r="Q23" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="333"/>
+      <c r="S23" s="333"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28">
+        <v>1529.88</v>
+      </c>
+      <c r="G24" s="31">
+        <v>337</v>
+      </c>
+      <c r="H24" s="227">
+        <f t="shared" si="0"/>
+        <v>1529.88</v>
+      </c>
+      <c r="I24" s="225">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="J24" s="219"/>
+      <c r="K24" s="289">
+        <v>1529.98</v>
+      </c>
+      <c r="L24" s="282">
+        <v>337</v>
+      </c>
+      <c r="M24" s="42"/>
+      <c r="N24" s="244">
+        <v>1480.04</v>
+      </c>
+      <c r="O24" s="245">
+        <v>326</v>
+      </c>
+      <c r="P24" s="241">
+        <f t="shared" si="1"/>
+        <v>-49.840000000000146</v>
+      </c>
+      <c r="Q24" s="44">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="R24" s="81"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="28">
+        <v>1575.57</v>
+      </c>
+      <c r="D25" s="29">
+        <v>65</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="227">
+        <f t="shared" si="0"/>
+        <v>1575.57</v>
+      </c>
+      <c r="I25" s="225">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="J25" s="219"/>
+      <c r="K25" s="289">
+        <v>1575.57</v>
+      </c>
+      <c r="L25" s="282">
+        <v>65</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="286">
+        <v>1575.74</v>
+      </c>
+      <c r="O25" s="287">
+        <v>65</v>
+      </c>
+      <c r="P25" s="249">
+        <f t="shared" si="1"/>
+        <v>0.17000000000007276</v>
+      </c>
+      <c r="Q25" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="83"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+    </row>
+    <row r="26" spans="2:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="227">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="219"/>
+      <c r="K26" s="290"/>
+      <c r="L26" s="214"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="244"/>
+      <c r="O26" s="245"/>
+      <c r="P26" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="334"/>
+      <c r="S26" s="334"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="87">
+        <v>492.8</v>
+      </c>
+      <c r="G27" s="88">
+        <v>13</v>
+      </c>
+      <c r="H27" s="227">
+        <f t="shared" si="0"/>
+        <v>492.8</v>
+      </c>
+      <c r="I27" s="225">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J27" s="219"/>
+      <c r="K27" s="289">
+        <v>492.8</v>
+      </c>
+      <c r="L27" s="282">
+        <v>13</v>
+      </c>
+      <c r="M27" s="34"/>
+      <c r="N27" s="286">
+        <v>492.8</v>
+      </c>
+      <c r="O27" s="287">
+        <v>13</v>
+      </c>
+      <c r="P27" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="211"/>
+      <c r="S27" s="211"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="28">
+        <v>1017.2</v>
+      </c>
+      <c r="D28" s="29">
+        <v>49</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="87">
+        <v>2209.34</v>
+      </c>
+      <c r="G28" s="88">
+        <v>80</v>
+      </c>
+      <c r="H28" s="227">
+        <f t="shared" si="0"/>
+        <v>3226.54</v>
+      </c>
+      <c r="I28" s="225">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="J28" s="219"/>
+      <c r="K28" s="289">
+        <v>3226.89</v>
+      </c>
+      <c r="L28" s="282">
+        <v>129</v>
+      </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="286">
+        <v>3225.84</v>
+      </c>
+      <c r="O28" s="287">
+        <v>129</v>
+      </c>
+      <c r="P28" s="249">
+        <f t="shared" si="1"/>
+        <v>-0.6999999999998181</v>
+      </c>
+      <c r="Q28" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="211"/>
+      <c r="S28" s="211"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="28">
+        <v>3684.15</v>
+      </c>
+      <c r="D29" s="29">
+        <v>125</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="227">
+        <f t="shared" si="0"/>
+        <v>3684.15</v>
+      </c>
+      <c r="I29" s="225">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="J29" s="219"/>
+      <c r="K29" s="289">
+        <v>3684.25</v>
+      </c>
+      <c r="L29" s="282">
+        <v>125</v>
+      </c>
+      <c r="M29" s="34"/>
+      <c r="N29" s="286">
+        <v>3684.36</v>
+      </c>
+      <c r="O29" s="287">
+        <v>125</v>
+      </c>
+      <c r="P29" s="249">
+        <f t="shared" si="1"/>
+        <v>0.21000000000003638</v>
+      </c>
+      <c r="Q29" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="211"/>
+      <c r="S29" s="211"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="28">
+        <v>340</v>
+      </c>
+      <c r="D30" s="29">
+        <v>2</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="87">
+        <v>3900</v>
+      </c>
+      <c r="G30" s="88">
+        <v>195</v>
+      </c>
+      <c r="H30" s="227">
+        <f t="shared" si="0"/>
+        <v>4240</v>
+      </c>
+      <c r="I30" s="225">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="J30" s="219"/>
+      <c r="K30" s="289">
+        <v>4240</v>
+      </c>
+      <c r="L30" s="282">
+        <v>197</v>
+      </c>
+      <c r="M30" s="42"/>
+      <c r="N30" s="244">
+        <v>4240</v>
+      </c>
+      <c r="O30" s="245">
+        <v>212</v>
+      </c>
+      <c r="P30" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="44">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R30" s="90"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="28">
+        <v>4406.6000000000004</v>
+      </c>
+      <c r="D31" s="29">
+        <v>162</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="87">
+        <v>17693</v>
+      </c>
+      <c r="G31" s="88">
+        <v>650</v>
+      </c>
+      <c r="H31" s="226">
+        <f t="shared" si="0"/>
+        <v>22099.599999999999</v>
+      </c>
+      <c r="I31" s="228">
+        <f t="shared" si="0"/>
+        <v>812</v>
+      </c>
+      <c r="J31" s="219"/>
+      <c r="K31" s="289">
+        <v>22096.880000000001</v>
+      </c>
+      <c r="L31" s="282">
+        <v>812</v>
+      </c>
+      <c r="M31" s="34"/>
+      <c r="N31" s="286">
+        <v>22102.639999999999</v>
+      </c>
+      <c r="O31" s="287">
+        <v>812</v>
+      </c>
+      <c r="P31" s="249">
+        <f t="shared" si="1"/>
+        <v>3.0400000000008731</v>
+      </c>
+      <c r="Q31" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="92"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="212" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="28">
+        <v>350</v>
+      </c>
+      <c r="D32" s="29">
+        <v>35</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="226">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="I32" s="228">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J32" s="219"/>
+      <c r="K32" s="289">
+        <v>350</v>
+      </c>
+      <c r="L32" s="282">
+        <v>35</v>
+      </c>
+      <c r="M32" s="34"/>
+      <c r="N32" s="286">
+        <v>350</v>
+      </c>
+      <c r="O32" s="287">
+        <v>35</v>
+      </c>
+      <c r="P32" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="92"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="212" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="28">
+        <v>1200</v>
+      </c>
+      <c r="D33" s="29">
+        <v>120</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="226">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="I33" s="228">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J33" s="219"/>
+      <c r="K33" s="289">
+        <v>1200</v>
+      </c>
+      <c r="L33" s="282">
+        <v>120</v>
+      </c>
+      <c r="M33" s="34"/>
+      <c r="N33" s="286">
+        <v>1200</v>
+      </c>
+      <c r="O33" s="287">
+        <v>120</v>
+      </c>
+      <c r="P33" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="94"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="265" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="96">
+        <v>810</v>
+      </c>
+      <c r="D34" s="97">
+        <v>81</v>
+      </c>
+      <c r="E34" s="98"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="226">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="I34" s="228">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="J34" s="219"/>
+      <c r="K34" s="289">
+        <v>810</v>
+      </c>
+      <c r="L34" s="282">
+        <v>81</v>
+      </c>
+      <c r="M34" s="34"/>
+      <c r="N34" s="286">
+        <v>810</v>
+      </c>
+      <c r="O34" s="287">
+        <v>81</v>
+      </c>
+      <c r="P34" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="100"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="228">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="219"/>
+      <c r="K35" s="290"/>
+      <c r="L35" s="214"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="244"/>
+      <c r="O35" s="245"/>
+      <c r="P35" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="104"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="96"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="228">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="219"/>
+      <c r="K36" s="290"/>
+      <c r="L36" s="214"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="244"/>
+      <c r="O36" s="245"/>
+      <c r="P36" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="104"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="228">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="219"/>
+      <c r="K37" s="290"/>
+      <c r="L37" s="214"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="244"/>
+      <c r="O37" s="245"/>
+      <c r="P37" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="107"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="109"/>
+      <c r="B38" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="228">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="219"/>
+      <c r="K38" s="290"/>
+      <c r="L38" s="214"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="244"/>
+      <c r="O38" s="245"/>
+      <c r="P38" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="107"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="264" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="96">
+        <v>6310.5</v>
+      </c>
+      <c r="G39" s="103">
+        <v>7</v>
+      </c>
+      <c r="H39" s="229">
+        <f t="shared" si="0"/>
+        <v>6310.5</v>
+      </c>
+      <c r="I39" s="230">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J39" s="219"/>
+      <c r="K39" s="294"/>
+      <c r="L39" s="295"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="286">
+        <v>6310.5</v>
+      </c>
+      <c r="O39" s="287">
+        <v>7</v>
+      </c>
+      <c r="P39" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="114"/>
+      <c r="S39" s="114"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:23" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="115">
+        <v>4183.6400000000003</v>
+      </c>
+      <c r="D40" s="29">
+        <v>184</v>
+      </c>
+      <c r="E40" s="102"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="303">
+        <f t="shared" si="0"/>
+        <v>4183.6400000000003</v>
+      </c>
+      <c r="I40" s="304">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="J40" s="219"/>
+      <c r="K40" s="290">
+        <v>4161.12</v>
+      </c>
+      <c r="L40" s="214">
+        <v>184</v>
+      </c>
+      <c r="M40" s="42"/>
+      <c r="N40" s="244">
+        <v>3855.13</v>
+      </c>
+      <c r="O40" s="245">
+        <v>170</v>
+      </c>
+      <c r="P40" s="241">
+        <f t="shared" si="1"/>
+        <v>-328.51000000000022</v>
+      </c>
+      <c r="Q40" s="44">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="R40" s="116"/>
+      <c r="S40" s="117"/>
+      <c r="T40" s="307" t="s">
+        <v>80</v>
+      </c>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="266" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="257"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="260"/>
+      <c r="H41" s="259">
+        <f t="shared" ref="H41:I50" si="2">F41+C41</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="230">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="219"/>
+      <c r="K41" s="291"/>
+      <c r="L41" s="258"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="244"/>
+      <c r="O41" s="245"/>
+      <c r="P41" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="116"/>
+      <c r="S41" s="117"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="266" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="257">
+        <v>5657.3</v>
+      </c>
+      <c r="D42" s="97">
+        <v>192</v>
+      </c>
+      <c r="E42" s="111"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="259">
+        <f t="shared" si="2"/>
+        <v>5657.3</v>
+      </c>
+      <c r="I42" s="230">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="J42" s="220"/>
+      <c r="K42" s="293">
+        <v>5657.3</v>
+      </c>
+      <c r="L42" s="281">
+        <v>192</v>
+      </c>
+      <c r="M42" s="305"/>
+      <c r="N42" s="286">
+        <v>5657.3</v>
+      </c>
+      <c r="O42" s="287">
+        <v>192</v>
+      </c>
+      <c r="P42" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="129"/>
+      <c r="S42" s="130"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="267" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="115"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="261"/>
+      <c r="H43" s="259">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="230">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="219"/>
+      <c r="K43" s="293"/>
+      <c r="L43" s="281"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="244"/>
+      <c r="O43" s="245"/>
+      <c r="P43" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="107"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="262" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="115"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="261"/>
+      <c r="H44" s="259">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="230">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="219"/>
+      <c r="K44" s="292"/>
+      <c r="L44" s="216"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="244"/>
+      <c r="O44" s="245"/>
+      <c r="P44" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="107"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="263" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="115"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="28">
+        <v>438.08</v>
+      </c>
+      <c r="G45" s="261">
+        <v>18</v>
+      </c>
+      <c r="H45" s="259">
+        <f t="shared" si="2"/>
+        <v>438.08</v>
+      </c>
+      <c r="I45" s="230">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="J45" s="219"/>
+      <c r="K45" s="293">
+        <v>438.08</v>
+      </c>
+      <c r="L45" s="281">
+        <v>18</v>
+      </c>
+      <c r="M45" s="305"/>
+      <c r="N45" s="286">
+        <v>438.08</v>
+      </c>
+      <c r="O45" s="287">
+        <v>18</v>
+      </c>
+      <c r="P45" s="249">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="107"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+    </row>
+    <row r="46" spans="1:23" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="263" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="115">
+        <v>1435.77</v>
+      </c>
+      <c r="D46" s="29">
+        <v>56</v>
+      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="261"/>
+      <c r="H46" s="259">
+        <f t="shared" si="2"/>
+        <v>1435.77</v>
+      </c>
+      <c r="I46" s="230">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="J46" s="219"/>
+      <c r="K46" s="293">
+        <v>1435.77</v>
+      </c>
+      <c r="L46" s="281">
+        <v>56</v>
+      </c>
+      <c r="M46" s="124"/>
+      <c r="N46" s="244">
+        <v>1437.77</v>
+      </c>
+      <c r="O46" s="245">
+        <v>58</v>
+      </c>
+      <c r="P46" s="241">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q46" s="44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R46" s="107"/>
+      <c r="S46" s="108"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+    </row>
+    <row r="47" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="263" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="115">
+        <v>1115.48</v>
+      </c>
+      <c r="D47" s="29">
+        <v>37</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="261"/>
+      <c r="H47" s="259">
+        <f t="shared" si="2"/>
+        <v>1115.48</v>
+      </c>
+      <c r="I47" s="230">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="J47" s="219"/>
+      <c r="K47" s="293">
+        <v>1115.56</v>
+      </c>
+      <c r="L47" s="281">
+        <v>37</v>
+      </c>
+      <c r="M47" s="305"/>
+      <c r="N47" s="286">
+        <v>1115.49</v>
+      </c>
+      <c r="O47" s="287">
+        <v>37</v>
+      </c>
+      <c r="P47" s="249">
+        <f t="shared" si="1"/>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="Q47" s="302">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="107"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+    </row>
+    <row r="48" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="268" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="271"/>
+      <c r="D48" s="273"/>
+      <c r="E48" s="275"/>
+      <c r="F48" s="277"/>
+      <c r="G48" s="279"/>
+      <c r="H48" s="259">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="230">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="219"/>
+      <c r="K48" s="292"/>
+      <c r="L48" s="216"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="244"/>
+      <c r="O48" s="245"/>
+      <c r="P48" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="107"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+    </row>
+    <row r="49" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="263"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="259">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="230">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="219"/>
+      <c r="K49" s="292"/>
+      <c r="L49" s="216"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="244"/>
+      <c r="O49" s="245"/>
+      <c r="P49" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="107"/>
+      <c r="S49" s="108"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+    </row>
+    <row r="50" spans="2:23" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="269"/>
+      <c r="C50" s="272"/>
+      <c r="D50" s="274"/>
+      <c r="E50" s="276"/>
+      <c r="F50" s="278"/>
+      <c r="G50" s="280"/>
+      <c r="H50" s="259">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="230">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="292"/>
+      <c r="L50" s="216"/>
+      <c r="M50" s="124"/>
+      <c r="N50" s="246"/>
+      <c r="O50" s="247"/>
+      <c r="P50" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="143"/>
+      <c r="S50" s="144"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+    </row>
+    <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="145"/>
+      <c r="D51" s="147"/>
+      <c r="F51" s="351" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="351"/>
+      <c r="H51" s="148">
+        <f>SUM(H5:H34)</f>
+        <v>74525.02</v>
+      </c>
+      <c r="I51" s="149">
+        <f>SUM(I5:I34)</f>
+        <v>3341</v>
+      </c>
+      <c r="J51" s="149"/>
+      <c r="K51" s="149"/>
+      <c r="L51" s="149"/>
+      <c r="M51" s="150"/>
+      <c r="N51" s="151">
+        <f>SUM(N5:N42)</f>
+        <v>88858.87000000001</v>
+      </c>
+      <c r="O51" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="P51" s="153"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="155"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="P52" s="157"/>
+      <c r="Q52" s="158"/>
+      <c r="R52" s="159"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B53" s="77"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="1"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+    </row>
+    <row r="54" spans="2:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="162" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="163"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="165"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="166"/>
+      <c r="M54" s="166"/>
+      <c r="N54" s="166"/>
+      <c r="O54" s="167"/>
+      <c r="P54" s="168"/>
+      <c r="Q54" s="169"/>
+    </row>
+    <row r="55" spans="2:23" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="170"/>
+      <c r="D55" s="209" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="200"/>
+      <c r="F55" s="200"/>
+      <c r="G55" s="201"/>
+      <c r="H55" s="201"/>
+      <c r="I55" s="201"/>
+      <c r="J55" s="201"/>
+      <c r="K55" s="201"/>
+      <c r="L55" s="201"/>
+      <c r="M55" s="201"/>
+      <c r="N55" s="201"/>
+      <c r="O55" s="202"/>
+      <c r="P55" s="203"/>
+      <c r="Q55" s="204"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="172"/>
+      <c r="T55" s="173"/>
+      <c r="U55" s="174"/>
+    </row>
+    <row r="56" spans="2:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="175"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="254"/>
+      <c r="E56" s="251"/>
+      <c r="F56" s="251"/>
+      <c r="G56" s="251"/>
+      <c r="H56" s="251"/>
+      <c r="I56" s="251"/>
+      <c r="J56" s="251"/>
+      <c r="K56" s="251"/>
+      <c r="L56" s="251"/>
+      <c r="M56" s="251"/>
+      <c r="N56" s="251"/>
+      <c r="O56" s="251"/>
+      <c r="P56" s="252"/>
+      <c r="Q56" s="253"/>
+    </row>
+    <row r="57" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="175"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="178"/>
+      <c r="P57" s="179"/>
+      <c r="Q57" s="169"/>
+    </row>
+    <row r="58" spans="2:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="175"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="180"/>
+      <c r="E58" s="181"/>
+      <c r="F58" s="181"/>
+      <c r="G58" s="181"/>
+      <c r="H58" s="181"/>
+      <c r="I58" s="181"/>
+      <c r="J58" s="181"/>
+      <c r="K58" s="181"/>
+      <c r="L58" s="181"/>
+      <c r="M58" s="181"/>
+      <c r="N58" s="181"/>
+      <c r="O58" s="181"/>
+      <c r="P58" s="179"/>
+      <c r="Q58" s="169"/>
+    </row>
+    <row r="59" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="175"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="182"/>
+      <c r="E59" s="183"/>
+      <c r="F59" s="183"/>
+      <c r="G59" s="183"/>
+      <c r="H59" s="183"/>
+      <c r="I59" s="183"/>
+      <c r="J59" s="183"/>
+      <c r="K59" s="183"/>
+      <c r="L59" s="183"/>
+      <c r="M59" s="183"/>
+      <c r="N59" s="183"/>
+      <c r="O59" s="178"/>
+      <c r="P59" s="184"/>
+      <c r="Q59" s="185"/>
+    </row>
+    <row r="60" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="175"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="178"/>
+      <c r="P60" s="184"/>
+      <c r="Q60" s="185"/>
+    </row>
+    <row r="61" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="175"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="187"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="178"/>
+      <c r="P61" s="184"/>
+      <c r="Q61" s="185"/>
+    </row>
+    <row r="62" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="175"/>
+      <c r="C62" s="176"/>
+      <c r="D62" s="188"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="178"/>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R26:S26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/INVENTARIO ALMACEN MARZO-2023 rtr.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/INVENTARIO ALMACEN MARZO-2023 rtr.xlsx
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="90">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -434,6 +434,46 @@
   <si>
     <t xml:space="preserve">BETY TIENE ERROR DE   22.52 kg  y Checa la diferencia </t>
   </si>
+  <si>
+    <t>Reporta menos en lo fisico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Reporta de mas en kg fisico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Reporta de  menos  en kg fisico</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   Error de bety   con</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFD60093"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     15    cajas   </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      Error de Bety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Reporta de mas en kg Y cajas  en fisico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporta  Gerardo MENOS  en lo FISICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporta  Gerardo Mas  en lo FISICO </t>
+  </si>
+  <si>
+    <t>ERRORES DE   BETY  EN SUS SALIDAS  Y  EN ARRASTRES DE UN MES A OTRO</t>
+  </si>
 </sst>
 </file>
 
@@ -444,7 +484,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,6 +815,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFD60093"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -2190,7 +2253,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="377">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2801,9 +2864,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2919,15 +2979,54 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2964,48 +3063,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3057,6 +3114,83 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="13" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="13" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="13" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="12" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="13" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -3068,15 +3202,15 @@
   <colors>
     <mruColors>
       <color rgb="FF00FF00"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFD60093"/>
       <color rgb="FF99CC00"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FFF7EFFF"/>
       <color rgb="FF669900"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF800080"/>
-      <color rgb="FF99FF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3384,10 +3518,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="310"/>
+      <c r="B1" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="322"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3399,21 +3533,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="311">
+      <c r="B2" s="323">
         <v>44955</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="F2" s="313" t="s">
+      <c r="C2" s="324"/>
+      <c r="F2" s="325" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
+      <c r="G2" s="325"/>
+      <c r="H2" s="325"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="314" t="s">
+      <c r="K2" s="326" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="314"/>
+      <c r="L2" s="326"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="Q2" s="12"/>
@@ -3423,30 +3557,30 @@
     </row>
     <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="315" t="s">
+      <c r="C3" s="327" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="328"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="317" t="s">
+      <c r="F3" s="329" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="318"/>
+      <c r="G3" s="330"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="319" t="s">
+      <c r="I3" s="331" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="322" t="s">
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="308" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="323"/>
-      <c r="O3" s="324" t="s">
+      <c r="N3" s="309"/>
+      <c r="O3" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="325"/>
+      <c r="P3" s="311"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -3472,7 +3606,7 @@
       <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="320"/>
+      <c r="I4" s="332"/>
       <c r="J4" s="16"/>
       <c r="K4" s="21" t="s">
         <v>10</v>
@@ -3533,8 +3667,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="326"/>
-      <c r="P5" s="326"/>
+      <c r="O5" s="312"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -3576,8 +3710,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="327"/>
-      <c r="P6" s="327"/>
+      <c r="O6" s="313"/>
+      <c r="P6" s="313"/>
       <c r="Q6" s="45"/>
       <c r="R6" s="13"/>
       <c r="S6" s="46"/>
@@ -3660,8 +3794,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="328"/>
-      <c r="P8" s="328"/>
+      <c r="O8" s="314"/>
+      <c r="P8" s="314"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -3742,8 +3876,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="329"/>
-      <c r="P10" s="329"/>
+      <c r="O10" s="315"/>
+      <c r="P10" s="315"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -3871,8 +4005,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="330"/>
-      <c r="P13" s="330"/>
+      <c r="O13" s="316"/>
+      <c r="P13" s="316"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="66"/>
       <c r="S13" s="66"/>
@@ -4140,8 +4274,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="331"/>
-      <c r="P20" s="331"/>
+      <c r="O20" s="317"/>
+      <c r="P20" s="317"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -4226,8 +4360,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="332"/>
-      <c r="P22" s="332"/>
+      <c r="O22" s="318"/>
+      <c r="P22" s="318"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="78"/>
       <c r="S22" s="78"/>
@@ -4269,8 +4403,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="333"/>
-      <c r="P23" s="333"/>
+      <c r="O23" s="319"/>
+      <c r="P23" s="319"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -4392,8 +4526,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="334"/>
-      <c r="P26" s="334"/>
+      <c r="O26" s="320"/>
+      <c r="P26" s="320"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
@@ -4906,10 +5040,10 @@
     <row r="40" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="145"/>
       <c r="D40" s="147"/>
-      <c r="F40" s="321" t="s">
+      <c r="F40" s="307" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="321"/>
+      <c r="G40" s="307"/>
       <c r="H40" s="148">
         <f>SUM(H5:H31)</f>
         <v>51250.14</v>
@@ -5109,6 +5243,13 @@
     <sortCondition ref="B5:B38"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -5121,13 +5262,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5170,10 +5304,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="310"/>
+      <c r="B1" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="322"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5188,26 +5322,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="335">
+      <c r="B2" s="333">
         <v>44989</v>
       </c>
-      <c r="C2" s="336"/>
-      <c r="F2" s="337" t="s">
+      <c r="C2" s="334"/>
+      <c r="F2" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="338"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="341" t="s">
+      <c r="G2" s="336"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="338"/>
+      <c r="J2" s="339" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="341"/>
-      <c r="L2" s="342"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="340"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="314" t="s">
+      <c r="N2" s="326" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="314"/>
+      <c r="O2" s="326"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -5217,33 +5351,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="345" t="s">
+      <c r="C3" s="343" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="346"/>
+      <c r="D3" s="344"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="347" t="s">
+      <c r="F3" s="345" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="348"/>
+      <c r="G3" s="346"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="349" t="s">
+      <c r="I3" s="347" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="343"/>
-      <c r="K3" s="343"/>
-      <c r="L3" s="344"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="342"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="314"/>
-      <c r="P3" s="322" t="s">
+      <c r="N3" s="326"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="308" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="323"/>
-      <c r="R3" s="324" t="s">
+      <c r="Q3" s="309"/>
+      <c r="R3" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="325"/>
+      <c r="S3" s="311"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -5269,7 +5403,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="350"/>
+      <c r="I4" s="348"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -5345,8 +5479,8 @@
       <c r="Q5" s="38">
         <v>0</v>
       </c>
-      <c r="R5" s="326"/>
-      <c r="S5" s="326"/>
+      <c r="R5" s="312"/>
+      <c r="S5" s="312"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -5383,8 +5517,8 @@
         <f>O6-I6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="327"/>
-      <c r="S6" s="327"/>
+      <c r="R6" s="313"/>
+      <c r="S6" s="313"/>
       <c r="T6" s="45"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -5471,8 +5605,8 @@
       <c r="Q8" s="52">
         <v>0</v>
       </c>
-      <c r="R8" s="328"/>
-      <c r="S8" s="328"/>
+      <c r="R8" s="314"/>
+      <c r="S8" s="314"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -5559,8 +5693,8 @@
       <c r="Q10" s="52">
         <v>0</v>
       </c>
-      <c r="R10" s="329"/>
-      <c r="S10" s="329"/>
+      <c r="R10" s="315"/>
+      <c r="S10" s="315"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -5700,8 +5834,8 @@
       <c r="Q13" s="52">
         <v>0</v>
       </c>
-      <c r="R13" s="330"/>
-      <c r="S13" s="330"/>
+      <c r="R13" s="316"/>
+      <c r="S13" s="316"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -6009,8 +6143,8 @@
       <c r="Q20" s="52">
         <v>0</v>
       </c>
-      <c r="R20" s="331"/>
-      <c r="S20" s="331"/>
+      <c r="R20" s="317"/>
+      <c r="S20" s="317"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -6097,8 +6231,8 @@
       <c r="Q22" s="52">
         <v>0</v>
       </c>
-      <c r="R22" s="332"/>
-      <c r="S22" s="332"/>
+      <c r="R22" s="318"/>
+      <c r="S22" s="318"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -6144,8 +6278,8 @@
       <c r="Q23" s="52">
         <v>0</v>
       </c>
-      <c r="R23" s="333"/>
-      <c r="S23" s="333"/>
+      <c r="R23" s="319"/>
+      <c r="S23" s="319"/>
       <c r="T23" s="45"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -6285,8 +6419,8 @@
       <c r="Q26" s="52">
         <v>0</v>
       </c>
-      <c r="R26" s="334"/>
-      <c r="S26" s="334"/>
+      <c r="R26" s="320"/>
+      <c r="S26" s="320"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -6969,10 +7103,10 @@
     <row r="43" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="145"/>
       <c r="D43" s="147"/>
-      <c r="F43" s="321" t="s">
+      <c r="F43" s="307" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="321"/>
+      <c r="G43" s="307"/>
       <c r="H43" s="148">
         <f>SUM(H5:H34)</f>
         <v>52842.86</v>
@@ -7193,6 +7327,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -7205,14 +7347,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7227,8 +7361,8 @@
   </sheetPr>
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39:L39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -7244,7 +7378,7 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.28515625" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="11.140625" style="156" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="161"/>
@@ -7255,10 +7389,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="310"/>
+      <c r="B1" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="322"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -7273,26 +7407,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="335">
+      <c r="B2" s="333">
         <v>45017</v>
       </c>
-      <c r="C2" s="336"/>
-      <c r="F2" s="337" t="s">
+      <c r="C2" s="334"/>
+      <c r="F2" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="338"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="341" t="s">
+      <c r="G2" s="336"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="338"/>
+      <c r="J2" s="339" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="341"/>
-      <c r="L2" s="342"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="340"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="314" t="s">
+      <c r="N2" s="326" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="314"/>
+      <c r="O2" s="326"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -7302,33 +7436,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="345" t="s">
+      <c r="C3" s="343" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="346"/>
+      <c r="D3" s="344"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="347" t="s">
+      <c r="F3" s="345" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="348"/>
+      <c r="G3" s="346"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="349" t="s">
+      <c r="I3" s="347" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="343"/>
-      <c r="K3" s="343"/>
-      <c r="L3" s="344"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="342"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="314"/>
-      <c r="P3" s="322" t="s">
+      <c r="N3" s="326"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="308" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="323"/>
-      <c r="R3" s="324" t="s">
+      <c r="Q3" s="309"/>
+      <c r="R3" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="325"/>
+      <c r="S3" s="311"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -7354,7 +7488,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="350"/>
+      <c r="I4" s="348"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -7408,17 +7542,17 @@
         <v>10</v>
       </c>
       <c r="J5" s="219"/>
-      <c r="K5" s="288">
+      <c r="K5" s="350">
         <v>335.3</v>
       </c>
-      <c r="L5" s="285">
+      <c r="L5" s="351">
         <v>10</v>
       </c>
       <c r="M5" s="42"/>
-      <c r="N5" s="283">
+      <c r="N5" s="242">
         <v>335.03</v>
       </c>
-      <c r="O5" s="284">
+      <c r="O5" s="243">
         <v>10</v>
       </c>
       <c r="P5" s="239">
@@ -7429,8 +7563,8 @@
         <f>O5-I5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="326"/>
-      <c r="S5" s="326"/>
+      <c r="R5" s="312"/>
+      <c r="S5" s="312"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -7440,7 +7574,7 @@
       <c r="B6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="270">
+      <c r="C6" s="269">
         <v>172.79</v>
       </c>
       <c r="D6" s="29">
@@ -7465,27 +7599,29 @@
       <c r="K6" s="289">
         <v>725.55</v>
       </c>
-      <c r="L6" s="282">
+      <c r="L6" s="214">
         <v>60</v>
       </c>
       <c r="M6" s="42"/>
-      <c r="N6" s="244">
+      <c r="N6" s="353">
         <v>684.25</v>
       </c>
-      <c r="O6" s="245">
+      <c r="O6" s="354">
         <v>58</v>
       </c>
-      <c r="P6" s="306">
+      <c r="P6" s="363">
         <f t="shared" si="1"/>
         <v>-41.299999999999955</v>
       </c>
-      <c r="Q6" s="300">
+      <c r="Q6" s="356">
         <f>O6-I6</f>
         <v>-2</v>
       </c>
-      <c r="R6" s="327"/>
-      <c r="S6" s="327"/>
-      <c r="T6" s="45"/>
+      <c r="R6" s="313"/>
+      <c r="S6" s="313"/>
+      <c r="T6" s="180" t="s">
+        <v>81</v>
+      </c>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
       <c r="W6" s="47"/>
@@ -7519,21 +7655,21 @@
       <c r="K7" s="289">
         <v>771.97</v>
       </c>
-      <c r="L7" s="282">
+      <c r="L7" s="214">
         <v>66</v>
       </c>
       <c r="M7" s="42"/>
-      <c r="N7" s="286">
+      <c r="N7" s="244">
         <v>771.62</v>
       </c>
-      <c r="O7" s="287">
+      <c r="O7" s="245">
         <v>66</v>
       </c>
-      <c r="P7" s="249">
+      <c r="P7" s="241">
         <f t="shared" si="1"/>
         <v>-0.35000000000002274</v>
       </c>
-      <c r="Q7" s="302">
+      <c r="Q7" s="44">
         <f t="shared" ref="Q7:Q50" si="2">O7-I7</f>
         <v>0</v>
       </c>
@@ -7569,26 +7705,26 @@
       <c r="K8" s="289">
         <v>748.3</v>
       </c>
-      <c r="L8" s="282">
+      <c r="L8" s="214">
         <v>62</v>
       </c>
       <c r="M8" s="42"/>
-      <c r="N8" s="286">
+      <c r="N8" s="244">
         <v>748.1</v>
       </c>
-      <c r="O8" s="287">
+      <c r="O8" s="245">
         <v>62</v>
       </c>
-      <c r="P8" s="249">
+      <c r="P8" s="241">
         <f t="shared" si="1"/>
         <v>-0.19999999999993179</v>
       </c>
-      <c r="Q8" s="302">
+      <c r="Q8" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="328"/>
-      <c r="S8" s="328"/>
+      <c r="R8" s="314"/>
+      <c r="S8" s="314"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -7600,7 +7736,7 @@
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="270"/>
+      <c r="E9" s="269"/>
       <c r="F9" s="28"/>
       <c r="G9" s="31"/>
       <c r="H9" s="224">
@@ -7612,16 +7748,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="219"/>
-      <c r="K9" s="290"/>
+      <c r="K9" s="289"/>
       <c r="L9" s="214"/>
       <c r="M9" s="42"/>
       <c r="N9" s="244"/>
       <c r="O9" s="245"/>
-      <c r="P9" s="249">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="302">
+      <c r="P9" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7657,26 +7793,26 @@
       <c r="K10" s="289">
         <v>696.32</v>
       </c>
-      <c r="L10" s="282">
+      <c r="L10" s="214">
         <v>19</v>
       </c>
       <c r="M10" s="42"/>
-      <c r="N10" s="286">
+      <c r="N10" s="244">
         <v>696.34</v>
       </c>
-      <c r="O10" s="287">
+      <c r="O10" s="245">
         <v>19</v>
       </c>
-      <c r="P10" s="249">
+      <c r="P10" s="241">
         <f t="shared" si="1"/>
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="Q10" s="302">
+      <c r="Q10" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="329"/>
-      <c r="S10" s="329"/>
+      <c r="R10" s="315"/>
+      <c r="S10" s="315"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -7704,33 +7840,33 @@
         <v>9</v>
       </c>
       <c r="J11" s="219"/>
-      <c r="K11" s="294">
+      <c r="K11" s="289">
         <v>179.74</v>
       </c>
-      <c r="L11" s="295">
+      <c r="L11" s="214">
         <v>9</v>
       </c>
-      <c r="M11" s="296"/>
-      <c r="N11" s="297">
+      <c r="M11" s="42"/>
+      <c r="N11" s="244">
         <v>179.1</v>
       </c>
-      <c r="O11" s="298">
+      <c r="O11" s="245">
         <v>9</v>
       </c>
-      <c r="P11" s="241">
+      <c r="P11" s="360">
         <f t="shared" si="1"/>
         <v>8.3599999999999852</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="361">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R11" s="255"/>
-      <c r="S11" s="255"/>
-      <c r="T11" s="180" t="s">
-        <v>78</v>
-      </c>
-      <c r="U11" s="13"/>
+      <c r="R11" s="362"/>
+      <c r="S11" s="362"/>
+      <c r="T11" s="358" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11" s="359"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
     </row>
@@ -7759,21 +7895,21 @@
       <c r="K12" s="289">
         <v>2039.56</v>
       </c>
-      <c r="L12" s="282">
+      <c r="L12" s="214">
         <v>75</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="286">
+      <c r="M12" s="42"/>
+      <c r="N12" s="244">
         <v>2039.56</v>
       </c>
-      <c r="O12" s="287">
+      <c r="O12" s="245">
         <v>75</v>
       </c>
-      <c r="P12" s="249">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="302">
+      <c r="P12" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7809,26 +7945,26 @@
       <c r="K13" s="289">
         <v>20</v>
       </c>
-      <c r="L13" s="282">
+      <c r="L13" s="214">
         <v>2</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="286">
+      <c r="M13" s="42"/>
+      <c r="N13" s="244">
         <v>20</v>
       </c>
-      <c r="O13" s="287">
+      <c r="O13" s="245">
         <v>2</v>
       </c>
-      <c r="P13" s="249">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="302">
+      <c r="P13" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="330"/>
-      <c r="S13" s="330"/>
+      <c r="R13" s="316"/>
+      <c r="S13" s="316"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -7859,21 +7995,21 @@
       <c r="K14" s="289">
         <v>50</v>
       </c>
-      <c r="L14" s="282">
+      <c r="L14" s="214">
         <v>5</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="286">
+      <c r="M14" s="42"/>
+      <c r="N14" s="244">
         <v>50</v>
       </c>
-      <c r="O14" s="287">
+      <c r="O14" s="245">
         <v>5</v>
       </c>
-      <c r="P14" s="249">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="302">
+      <c r="P14" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7910,30 +8046,32 @@
         <v>138</v>
       </c>
       <c r="J15" s="219"/>
-      <c r="K15" s="301">
+      <c r="K15" s="352">
         <v>4716.1000000000004</v>
       </c>
-      <c r="L15" s="282">
+      <c r="L15" s="214">
         <v>138</v>
       </c>
       <c r="M15" s="42"/>
-      <c r="N15" s="297">
+      <c r="N15" s="296">
         <v>4725.99</v>
       </c>
-      <c r="O15" s="298">
+      <c r="O15" s="297">
         <v>138</v>
       </c>
-      <c r="P15" s="299">
+      <c r="P15" s="298">
         <f t="shared" si="1"/>
         <v>10.809999999999491</v>
       </c>
-      <c r="Q15" s="300">
+      <c r="Q15" s="299">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15" s="67"/>
       <c r="S15" s="68"/>
-      <c r="T15" s="45"/>
+      <c r="T15" s="180" t="s">
+        <v>82</v>
+      </c>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
@@ -7963,21 +8101,21 @@
       <c r="K16" s="289">
         <v>339.91</v>
       </c>
-      <c r="L16" s="282">
+      <c r="L16" s="214">
         <v>10</v>
       </c>
       <c r="M16" s="42"/>
-      <c r="N16" s="286">
+      <c r="N16" s="244">
         <v>339.91</v>
       </c>
-      <c r="O16" s="287">
+      <c r="O16" s="245">
         <v>10</v>
       </c>
-      <c r="P16" s="249">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="302">
+      <c r="P16" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8006,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="219"/>
-      <c r="K17" s="290"/>
+      <c r="K17" s="289"/>
       <c r="L17" s="214"/>
       <c r="M17" s="42"/>
       <c r="N17" s="244"/>
@@ -8051,27 +8189,29 @@
       <c r="K18" s="289">
         <v>4860.43</v>
       </c>
-      <c r="L18" s="282">
+      <c r="L18" s="214">
         <v>199</v>
       </c>
       <c r="M18" s="42"/>
-      <c r="N18" s="244">
+      <c r="N18" s="353">
         <v>3936.99</v>
       </c>
-      <c r="O18" s="245">
+      <c r="O18" s="354">
         <v>160</v>
       </c>
-      <c r="P18" s="241">
+      <c r="P18" s="355">
         <f t="shared" si="1"/>
         <v>-923.44000000000051</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="356">
         <f t="shared" si="2"/>
         <v>-39</v>
       </c>
       <c r="R18" s="71"/>
       <c r="S18" s="72"/>
-      <c r="T18" s="45"/>
+      <c r="T18" s="180" t="s">
+        <v>83</v>
+      </c>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
@@ -8101,27 +8241,27 @@
       <c r="K19" s="289">
         <v>15840.34</v>
       </c>
-      <c r="L19" s="282">
+      <c r="L19" s="214">
         <v>583</v>
       </c>
       <c r="M19" s="42"/>
       <c r="N19" s="244">
-        <v>15248.74</v>
+        <v>15844.26</v>
       </c>
       <c r="O19" s="245">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="P19" s="241">
         <f t="shared" si="1"/>
-        <v>-591.60000000000036</v>
+        <v>3.9200000000000728</v>
       </c>
       <c r="Q19" s="44">
         <f t="shared" si="2"/>
-        <v>-58</v>
+        <v>0</v>
       </c>
       <c r="R19" s="73"/>
       <c r="S19" s="74"/>
-      <c r="T19" s="45"/>
+      <c r="T19" s="180"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
@@ -8144,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="219"/>
-      <c r="K20" s="290"/>
+      <c r="K20" s="289"/>
       <c r="L20" s="214"/>
       <c r="M20" s="42"/>
       <c r="N20" s="244"/>
@@ -8157,8 +8297,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="331"/>
-      <c r="S20" s="331"/>
+      <c r="R20" s="317"/>
+      <c r="S20" s="317"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -8189,21 +8329,21 @@
       <c r="K21" s="289">
         <v>699.15</v>
       </c>
-      <c r="L21" s="282">
+      <c r="L21" s="214">
         <v>25</v>
       </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="286">
+      <c r="M21" s="42"/>
+      <c r="N21" s="244">
         <v>699.14</v>
       </c>
-      <c r="O21" s="287">
+      <c r="O21" s="245">
         <v>25</v>
       </c>
-      <c r="P21" s="249">
+      <c r="P21" s="241">
         <f t="shared" si="1"/>
         <v>-9.9999999999909051E-3</v>
       </c>
-      <c r="Q21" s="302">
+      <c r="Q21" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8232,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="219"/>
-      <c r="K22" s="290"/>
+      <c r="K22" s="289"/>
       <c r="L22" s="214"/>
       <c r="M22" s="42"/>
       <c r="N22" s="244"/>
@@ -8245,8 +8385,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="332"/>
-      <c r="S22" s="332"/>
+      <c r="R22" s="318"/>
+      <c r="S22" s="318"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -8277,27 +8417,29 @@
       <c r="K23" s="289">
         <v>3303.73</v>
       </c>
-      <c r="L23" s="282">
+      <c r="L23" s="214">
         <v>164</v>
       </c>
       <c r="M23" s="42"/>
-      <c r="N23" s="244">
+      <c r="N23" s="296">
         <v>3399.75</v>
       </c>
-      <c r="O23" s="245">
+      <c r="O23" s="297">
         <v>164</v>
       </c>
-      <c r="P23" s="241">
+      <c r="P23" s="298">
         <f t="shared" si="1"/>
         <v>96.019999999999982</v>
       </c>
-      <c r="Q23" s="44">
+      <c r="Q23" s="299">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="333"/>
-      <c r="S23" s="333"/>
-      <c r="T23" s="45"/>
+      <c r="R23" s="319"/>
+      <c r="S23" s="319"/>
+      <c r="T23" s="180" t="s">
+        <v>82</v>
+      </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
@@ -8327,27 +8469,27 @@
       <c r="K24" s="289">
         <v>1529.98</v>
       </c>
-      <c r="L24" s="282">
+      <c r="L24" s="214">
         <v>337</v>
       </c>
       <c r="M24" s="42"/>
       <c r="N24" s="244">
-        <v>1480.04</v>
+        <v>1529.98</v>
       </c>
       <c r="O24" s="245">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="P24" s="241">
         <f t="shared" si="1"/>
-        <v>-49.840000000000146</v>
+        <v>9.9999999999909051E-2</v>
       </c>
       <c r="Q24" s="44">
         <f t="shared" si="2"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="R24" s="81"/>
       <c r="S24" s="82"/>
-      <c r="T24" s="45"/>
+      <c r="T24" s="180"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
@@ -8377,21 +8519,21 @@
       <c r="K25" s="289">
         <v>1575.57</v>
       </c>
-      <c r="L25" s="282">
+      <c r="L25" s="214">
         <v>65</v>
       </c>
-      <c r="M25" s="34"/>
-      <c r="N25" s="286">
+      <c r="M25" s="42"/>
+      <c r="N25" s="244">
         <v>1575.74</v>
       </c>
-      <c r="O25" s="287">
+      <c r="O25" s="245">
         <v>65</v>
       </c>
-      <c r="P25" s="249">
+      <c r="P25" s="241">
         <f t="shared" si="1"/>
         <v>0.17000000000007276</v>
       </c>
-      <c r="Q25" s="302">
+      <c r="Q25" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8420,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="219"/>
-      <c r="K26" s="290"/>
+      <c r="K26" s="289"/>
       <c r="L26" s="214"/>
       <c r="M26" s="42"/>
       <c r="N26" s="244"/>
@@ -8433,8 +8575,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="334"/>
-      <c r="S26" s="334"/>
+      <c r="R26" s="320"/>
+      <c r="S26" s="320"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -8465,21 +8607,21 @@
       <c r="K27" s="289">
         <v>492.8</v>
       </c>
-      <c r="L27" s="282">
+      <c r="L27" s="214">
         <v>13</v>
       </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="286">
+      <c r="M27" s="42"/>
+      <c r="N27" s="244">
         <v>492.8</v>
       </c>
-      <c r="O27" s="287">
+      <c r="O27" s="245">
         <v>13</v>
       </c>
-      <c r="P27" s="249">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="302">
+      <c r="P27" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8519,21 +8661,21 @@
       <c r="K28" s="289">
         <v>3226.89</v>
       </c>
-      <c r="L28" s="282">
+      <c r="L28" s="214">
         <v>129</v>
       </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="286">
+      <c r="M28" s="42"/>
+      <c r="N28" s="244">
         <v>3225.84</v>
       </c>
-      <c r="O28" s="287">
+      <c r="O28" s="245">
         <v>129</v>
       </c>
-      <c r="P28" s="249">
+      <c r="P28" s="241">
         <f t="shared" si="1"/>
         <v>-0.6999999999998181</v>
       </c>
-      <c r="Q28" s="302">
+      <c r="Q28" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8569,21 +8711,21 @@
       <c r="K29" s="289">
         <v>3684.25</v>
       </c>
-      <c r="L29" s="282">
+      <c r="L29" s="214">
         <v>125</v>
       </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="286">
+      <c r="M29" s="42"/>
+      <c r="N29" s="244">
         <v>3684.36</v>
       </c>
-      <c r="O29" s="287">
+      <c r="O29" s="245">
         <v>125</v>
       </c>
-      <c r="P29" s="249">
+      <c r="P29" s="241">
         <f t="shared" si="1"/>
         <v>0.21000000000003638</v>
       </c>
-      <c r="Q29" s="302">
+      <c r="Q29" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8594,7 +8736,7 @@
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
     </row>
-    <row r="30" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="30" t="s">
         <v>70</v>
       </c>
@@ -8602,7 +8744,7 @@
         <v>340</v>
       </c>
       <c r="D30" s="29">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="87">
@@ -8612,18 +8754,18 @@
         <v>195</v>
       </c>
       <c r="H30" s="227">
-        <f t="shared" si="0"/>
+        <f>F30+C30</f>
         <v>4240</v>
       </c>
       <c r="I30" s="225">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="J30" s="219"/>
       <c r="K30" s="289">
         <v>4240</v>
       </c>
-      <c r="L30" s="282">
+      <c r="L30" s="357">
         <v>197</v>
       </c>
       <c r="M30" s="42"/>
@@ -8634,19 +8776,21 @@
         <v>212</v>
       </c>
       <c r="P30" s="241">
-        <f t="shared" si="1"/>
+        <f>N30-H30</f>
         <v>0</v>
       </c>
       <c r="Q30" s="44">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R30" s="90"/>
       <c r="S30" s="91"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
+      <c r="T30" s="358" t="s">
+        <v>84</v>
+      </c>
+      <c r="U30" s="359"/>
+      <c r="V30" s="359"/>
+      <c r="W30" s="359"/>
     </row>
     <row r="31" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="30" t="s">
@@ -8677,21 +8821,21 @@
       <c r="K31" s="289">
         <v>22096.880000000001</v>
       </c>
-      <c r="L31" s="282">
+      <c r="L31" s="214">
         <v>812</v>
       </c>
-      <c r="M31" s="34"/>
-      <c r="N31" s="286">
+      <c r="M31" s="42"/>
+      <c r="N31" s="244">
         <v>22102.639999999999</v>
       </c>
-      <c r="O31" s="287">
+      <c r="O31" s="245">
         <v>812</v>
       </c>
-      <c r="P31" s="249">
+      <c r="P31" s="241">
         <f t="shared" si="1"/>
         <v>3.0400000000008731</v>
       </c>
-      <c r="Q31" s="302">
+      <c r="Q31" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8727,21 +8871,21 @@
       <c r="K32" s="289">
         <v>350</v>
       </c>
-      <c r="L32" s="282">
+      <c r="L32" s="214">
         <v>35</v>
       </c>
-      <c r="M32" s="34"/>
-      <c r="N32" s="286">
+      <c r="M32" s="42"/>
+      <c r="N32" s="244">
         <v>350</v>
       </c>
-      <c r="O32" s="287">
+      <c r="O32" s="245">
         <v>35</v>
       </c>
-      <c r="P32" s="249">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="302">
+      <c r="P32" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8777,21 +8921,21 @@
       <c r="K33" s="289">
         <v>1200</v>
       </c>
-      <c r="L33" s="282">
+      <c r="L33" s="214">
         <v>120</v>
       </c>
-      <c r="M33" s="34"/>
-      <c r="N33" s="286">
+      <c r="M33" s="42"/>
+      <c r="N33" s="244">
         <v>1200</v>
       </c>
-      <c r="O33" s="287">
+      <c r="O33" s="245">
         <v>120</v>
       </c>
-      <c r="P33" s="249">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="302">
+      <c r="P33" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8803,7 +8947,7 @@
       <c r="W33" s="13"/>
     </row>
     <row r="34" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="265" t="s">
+      <c r="B34" s="264" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="96">
@@ -8827,21 +8971,21 @@
       <c r="K34" s="289">
         <v>810</v>
       </c>
-      <c r="L34" s="282">
+      <c r="L34" s="214">
         <v>81</v>
       </c>
-      <c r="M34" s="34"/>
-      <c r="N34" s="286">
+      <c r="M34" s="42"/>
+      <c r="N34" s="244">
         <v>810</v>
       </c>
-      <c r="O34" s="287">
+      <c r="O34" s="245">
         <v>81</v>
       </c>
-      <c r="P34" s="249">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="302">
+      <c r="P34" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8870,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="219"/>
-      <c r="K35" s="290"/>
+      <c r="K35" s="289"/>
       <c r="L35" s="214"/>
       <c r="M35" s="42"/>
       <c r="N35" s="244"/>
@@ -8908,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="219"/>
-      <c r="K36" s="290"/>
+      <c r="K36" s="289"/>
       <c r="L36" s="214"/>
       <c r="M36" s="42"/>
       <c r="N36" s="244"/>
@@ -8946,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="219"/>
-      <c r="K37" s="290"/>
+      <c r="K37" s="289"/>
       <c r="L37" s="214"/>
       <c r="M37" s="42"/>
       <c r="N37" s="244"/>
@@ -8985,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="219"/>
-      <c r="K38" s="290"/>
+      <c r="K38" s="289"/>
       <c r="L38" s="214"/>
       <c r="M38" s="42"/>
       <c r="N38" s="244"/>
@@ -9006,7 +9150,7 @@
       <c r="W38" s="13"/>
     </row>
     <row r="39" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="264" t="s">
+      <c r="B39" s="110" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="28"/>
@@ -9030,21 +9174,21 @@
       <c r="K39" s="289">
         <v>6310.5</v>
       </c>
-      <c r="L39" s="282">
+      <c r="L39" s="214">
         <v>7</v>
       </c>
       <c r="M39" s="42"/>
-      <c r="N39" s="286">
+      <c r="N39" s="244">
         <v>6310.5</v>
       </c>
-      <c r="O39" s="287">
+      <c r="O39" s="245">
         <v>7</v>
       </c>
-      <c r="P39" s="249">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="302">
+      <c r="P39" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9068,16 +9212,16 @@
       <c r="E40" s="102"/>
       <c r="F40" s="96"/>
       <c r="G40" s="103"/>
-      <c r="H40" s="303">
+      <c r="H40" s="229">
         <f t="shared" si="0"/>
         <v>4183.6400000000003</v>
       </c>
-      <c r="I40" s="304">
+      <c r="I40" s="230">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
       <c r="J40" s="219"/>
-      <c r="K40" s="290">
+      <c r="K40" s="289">
         <v>4161.12</v>
       </c>
       <c r="L40" s="214">
@@ -9085,38 +9229,38 @@
       </c>
       <c r="M40" s="42"/>
       <c r="N40" s="244">
-        <v>3855.13</v>
+        <v>4163.1499999999996</v>
       </c>
       <c r="O40" s="245">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P40" s="241">
         <f t="shared" si="1"/>
-        <v>-328.51000000000022</v>
+        <v>-20.490000000000691</v>
       </c>
       <c r="Q40" s="44">
         <f t="shared" si="2"/>
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="R40" s="116"/>
       <c r="S40" s="117"/>
-      <c r="T40" s="180" t="s">
+      <c r="T40" s="358" t="s">
         <v>79</v>
       </c>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
+      <c r="U40" s="359"/>
+      <c r="V40" s="359"/>
+      <c r="W40" s="359"/>
     </row>
     <row r="41" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="266" t="s">
+      <c r="B41" s="265" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="257"/>
+      <c r="C41" s="256"/>
       <c r="D41" s="97"/>
       <c r="E41" s="102"/>
       <c r="F41" s="96"/>
-      <c r="G41" s="260"/>
-      <c r="H41" s="259">
+      <c r="G41" s="259"/>
+      <c r="H41" s="258">
         <f t="shared" ref="H41:H42" si="3">F41+C41</f>
         <v>0</v>
       </c>
@@ -9125,8 +9269,8 @@
         <v>0</v>
       </c>
       <c r="J41" s="219"/>
-      <c r="K41" s="291"/>
-      <c r="L41" s="258"/>
+      <c r="K41" s="290"/>
+      <c r="L41" s="257"/>
       <c r="M41" s="42"/>
       <c r="N41" s="244"/>
       <c r="O41" s="245"/>
@@ -9146,10 +9290,10 @@
       <c r="W41" s="13"/>
     </row>
     <row r="42" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="266" t="s">
+      <c r="B42" s="265" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="257">
+      <c r="C42" s="256">
         <v>5657.3</v>
       </c>
       <c r="D42" s="97">
@@ -9157,8 +9301,8 @@
       </c>
       <c r="E42" s="111"/>
       <c r="F42" s="96"/>
-      <c r="G42" s="260"/>
-      <c r="H42" s="259">
+      <c r="G42" s="259"/>
+      <c r="H42" s="258">
         <f t="shared" si="3"/>
         <v>5657.3</v>
       </c>
@@ -9167,24 +9311,24 @@
         <v>192</v>
       </c>
       <c r="J42" s="220"/>
-      <c r="K42" s="293">
+      <c r="K42" s="291">
         <v>5657.3</v>
       </c>
-      <c r="L42" s="281">
+      <c r="L42" s="216">
         <v>192</v>
       </c>
-      <c r="M42" s="305"/>
-      <c r="N42" s="286">
+      <c r="M42" s="124"/>
+      <c r="N42" s="244">
         <v>5657.3</v>
       </c>
-      <c r="O42" s="287">
+      <c r="O42" s="245">
         <v>192</v>
       </c>
-      <c r="P42" s="249">
+      <c r="P42" s="241">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="302">
+      <c r="Q42" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9196,15 +9340,15 @@
       <c r="W42" s="13"/>
     </row>
     <row r="43" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="267" t="s">
+      <c r="B43" s="266" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="115"/>
       <c r="D43" s="29"/>
       <c r="E43" s="30"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="261"/>
-      <c r="H43" s="259">
+      <c r="G43" s="260"/>
+      <c r="H43" s="258">
         <f t="shared" ref="H43:H50" si="6">F43+C43</f>
         <v>0</v>
       </c>
@@ -9213,8 +9357,8 @@
         <v>0</v>
       </c>
       <c r="J43" s="219"/>
-      <c r="K43" s="293"/>
-      <c r="L43" s="281"/>
+      <c r="K43" s="291"/>
+      <c r="L43" s="216"/>
       <c r="M43" s="124"/>
       <c r="N43" s="244"/>
       <c r="O43" s="245"/>
@@ -9234,15 +9378,15 @@
       <c r="W43" s="13"/>
     </row>
     <row r="44" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="262" t="s">
+      <c r="B44" s="261" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="115"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="261"/>
-      <c r="H44" s="259">
+      <c r="G44" s="260"/>
+      <c r="H44" s="258">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9251,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="219"/>
-      <c r="K44" s="292"/>
+      <c r="K44" s="291"/>
       <c r="L44" s="216"/>
       <c r="M44" s="124"/>
       <c r="N44" s="244"/>
@@ -9272,7 +9416,7 @@
       <c r="W44" s="13"/>
     </row>
     <row r="45" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="263" t="s">
+      <c r="B45" s="262" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="115"/>
@@ -9281,10 +9425,10 @@
       <c r="F45" s="28">
         <v>438.08</v>
       </c>
-      <c r="G45" s="261">
+      <c r="G45" s="260">
         <v>18</v>
       </c>
-      <c r="H45" s="259">
+      <c r="H45" s="258">
         <f t="shared" si="6"/>
         <v>438.08</v>
       </c>
@@ -9293,24 +9437,24 @@
         <v>18</v>
       </c>
       <c r="J45" s="219"/>
-      <c r="K45" s="293">
+      <c r="K45" s="291">
         <v>438.08</v>
       </c>
-      <c r="L45" s="281">
+      <c r="L45" s="216">
         <v>18</v>
       </c>
-      <c r="M45" s="305"/>
-      <c r="N45" s="286">
+      <c r="M45" s="124"/>
+      <c r="N45" s="244">
         <v>438.08</v>
       </c>
-      <c r="O45" s="287">
+      <c r="O45" s="245">
         <v>18</v>
       </c>
-      <c r="P45" s="249">
+      <c r="P45" s="241">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="302">
+      <c r="Q45" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9322,7 +9466,7 @@
       <c r="W45" s="13"/>
     </row>
     <row r="46" spans="1:23" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="263" t="s">
+      <c r="B46" s="262" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="115">
@@ -9333,8 +9477,8 @@
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="261"/>
-      <c r="H46" s="259">
+      <c r="G46" s="260"/>
+      <c r="H46" s="258">
         <f t="shared" si="6"/>
         <v>1435.77</v>
       </c>
@@ -9343,36 +9487,38 @@
         <v>56</v>
       </c>
       <c r="J46" s="219"/>
-      <c r="K46" s="293">
+      <c r="K46" s="292">
         <v>1435.77</v>
       </c>
-      <c r="L46" s="281">
+      <c r="L46" s="280">
         <v>56</v>
       </c>
       <c r="M46" s="124"/>
-      <c r="N46" s="244">
+      <c r="N46" s="296">
         <v>1437.77</v>
       </c>
-      <c r="O46" s="245">
+      <c r="O46" s="297">
         <v>58</v>
       </c>
-      <c r="P46" s="241">
+      <c r="P46" s="298">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Q46" s="44">
+      <c r="Q46" s="299">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R46" s="107"/>
       <c r="S46" s="108"/>
-      <c r="T46" s="45"/>
+      <c r="T46" s="180" t="s">
+        <v>86</v>
+      </c>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
     </row>
     <row r="47" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="263" t="s">
+      <c r="B47" s="262" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="115">
@@ -9383,8 +9529,8 @@
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="261"/>
-      <c r="H47" s="259">
+      <c r="G47" s="260"/>
+      <c r="H47" s="258">
         <f t="shared" si="6"/>
         <v>1115.48</v>
       </c>
@@ -9393,24 +9539,24 @@
         <v>37</v>
       </c>
       <c r="J47" s="219"/>
-      <c r="K47" s="293">
+      <c r="K47" s="291">
         <v>1115.56</v>
       </c>
-      <c r="L47" s="281">
+      <c r="L47" s="216">
         <v>37</v>
       </c>
-      <c r="M47" s="305"/>
-      <c r="N47" s="286">
+      <c r="M47" s="124"/>
+      <c r="N47" s="244">
         <v>1115.49</v>
       </c>
-      <c r="O47" s="287">
+      <c r="O47" s="245">
         <v>37</v>
       </c>
-      <c r="P47" s="249">
+      <c r="P47" s="241">
         <f t="shared" si="8"/>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="Q47" s="302">
+      <c r="Q47" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9422,15 +9568,15 @@
       <c r="W47" s="13"/>
     </row>
     <row r="48" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="268" t="s">
+      <c r="B48" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="271"/>
-      <c r="D48" s="273"/>
-      <c r="E48" s="275"/>
-      <c r="F48" s="277"/>
-      <c r="G48" s="279"/>
-      <c r="H48" s="259">
+      <c r="C48" s="270"/>
+      <c r="D48" s="272"/>
+      <c r="E48" s="274"/>
+      <c r="F48" s="276"/>
+      <c r="G48" s="278"/>
+      <c r="H48" s="258">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9439,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="219"/>
-      <c r="K48" s="292"/>
+      <c r="K48" s="291"/>
       <c r="L48" s="216"/>
       <c r="M48" s="124"/>
       <c r="N48" s="244"/>
@@ -9460,13 +9606,13 @@
       <c r="W48" s="13"/>
     </row>
     <row r="49" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="263"/>
+      <c r="B49" s="262"/>
       <c r="C49" s="115"/>
       <c r="D49" s="29"/>
       <c r="E49" s="30"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="261"/>
-      <c r="H49" s="259">
+      <c r="G49" s="260"/>
+      <c r="H49" s="258">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9475,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="219"/>
-      <c r="K49" s="292"/>
+      <c r="K49" s="291"/>
       <c r="L49" s="216"/>
       <c r="M49" s="124"/>
       <c r="N49" s="244"/>
@@ -9496,13 +9642,13 @@
       <c r="W49" s="13"/>
     </row>
     <row r="50" spans="2:23" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="269"/>
-      <c r="C50" s="272"/>
-      <c r="D50" s="274"/>
-      <c r="E50" s="276"/>
-      <c r="F50" s="278"/>
-      <c r="G50" s="280"/>
-      <c r="H50" s="259">
+      <c r="B50" s="268"/>
+      <c r="C50" s="271"/>
+      <c r="D50" s="273"/>
+      <c r="E50" s="275"/>
+      <c r="F50" s="277"/>
+      <c r="G50" s="279"/>
+      <c r="H50" s="258">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9511,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="6"/>
-      <c r="K50" s="292"/>
+      <c r="K50" s="291"/>
       <c r="L50" s="216"/>
       <c r="M50" s="124"/>
       <c r="N50" s="246"/>
@@ -9534,17 +9680,17 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="351" t="s">
+      <c r="F51" s="349" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="351"/>
+      <c r="G51" s="349"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>74525.02</v>
       </c>
       <c r="I51" s="149">
         <f>SUM(I5:I34)</f>
-        <v>3341</v>
+        <v>3356</v>
       </c>
       <c r="J51" s="149"/>
       <c r="K51" s="149"/>
@@ -9552,7 +9698,7 @@
       <c r="M51" s="150"/>
       <c r="N51" s="151">
         <f>SUM(N5:N42)</f>
-        <v>88858.87000000001</v>
+        <v>89812.35</v>
       </c>
       <c r="O51" s="152" t="s">
         <v>47</v>
@@ -9606,60 +9752,64 @@
       <c r="P54" s="168"/>
       <c r="Q54" s="169"/>
     </row>
-    <row r="55" spans="2:23" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="170"/>
-      <c r="D55" s="209" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="200"/>
-      <c r="F55" s="200"/>
-      <c r="G55" s="201"/>
-      <c r="H55" s="201"/>
-      <c r="I55" s="201"/>
-      <c r="J55" s="201"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="201"/>
-      <c r="N55" s="201"/>
-      <c r="O55" s="202"/>
-      <c r="P55" s="203"/>
-      <c r="Q55" s="204"/>
+      <c r="D55" s="372" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="370"/>
+      <c r="F55" s="370"/>
+      <c r="G55" s="371"/>
+      <c r="H55" s="371"/>
+      <c r="I55" s="371"/>
+      <c r="J55" s="364"/>
+      <c r="K55" s="364"/>
+      <c r="L55" s="364"/>
+      <c r="M55" s="364"/>
+      <c r="N55" s="364"/>
+      <c r="O55" s="365"/>
+      <c r="P55" s="366"/>
+      <c r="Q55" s="367"/>
       <c r="R55" s="171"/>
       <c r="S55" s="172"/>
       <c r="T55" s="173"/>
       <c r="U55" s="174"/>
     </row>
-    <row r="56" spans="2:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="175"/>
       <c r="C56" s="176"/>
-      <c r="D56" s="254"/>
-      <c r="E56" s="251"/>
-      <c r="F56" s="251"/>
-      <c r="G56" s="251"/>
-      <c r="H56" s="251"/>
-      <c r="I56" s="251"/>
-      <c r="J56" s="251"/>
-      <c r="K56" s="251"/>
-      <c r="L56" s="251"/>
-      <c r="M56" s="251"/>
-      <c r="N56" s="251"/>
-      <c r="O56" s="251"/>
-      <c r="P56" s="252"/>
-      <c r="Q56" s="253"/>
+      <c r="D56" s="373" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="374"/>
+      <c r="F56" s="374"/>
+      <c r="G56" s="374"/>
+      <c r="H56" s="374"/>
+      <c r="I56" s="374"/>
+      <c r="J56" s="368"/>
+      <c r="K56" s="368"/>
+      <c r="L56" s="368"/>
+      <c r="M56" s="368"/>
+      <c r="N56" s="368"/>
+      <c r="O56" s="368"/>
+      <c r="P56" s="168"/>
+      <c r="Q56" s="369"/>
     </row>
     <row r="57" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="175"/>
       <c r="C57" s="176"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
+      <c r="D57" s="375" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="376"/>
+      <c r="F57" s="376"/>
+      <c r="G57" s="359"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="359"/>
+      <c r="J57" s="359"/>
+      <c r="K57" s="359"/>
+      <c r="L57" s="359"/>
+      <c r="M57" s="359"/>
       <c r="N57" s="13"/>
       <c r="O57" s="178"/>
       <c r="P57" s="179"/>
@@ -9761,6 +9911,14 @@
     <sortCondition ref="B5:B50"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -9773,17 +9931,9 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.31" bottom="0.3" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -9832,10 +9982,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="310"/>
+      <c r="B1" s="321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="322"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -9850,26 +10000,26 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="335">
+      <c r="B2" s="333">
         <v>45017</v>
       </c>
-      <c r="C2" s="336"/>
-      <c r="F2" s="337" t="s">
+      <c r="C2" s="334"/>
+      <c r="F2" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="338"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="341" t="s">
+      <c r="G2" s="336"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="338"/>
+      <c r="J2" s="339" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="341"/>
-      <c r="L2" s="342"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="340"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="314" t="s">
+      <c r="N2" s="326" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="314"/>
+      <c r="O2" s="326"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -9879,33 +10029,33 @@
     </row>
     <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="345" t="s">
+      <c r="C3" s="343" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="346"/>
+      <c r="D3" s="344"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="347" t="s">
+      <c r="F3" s="345" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="348"/>
+      <c r="G3" s="346"/>
       <c r="H3" s="233"/>
-      <c r="I3" s="349" t="s">
+      <c r="I3" s="347" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="343"/>
-      <c r="K3" s="343"/>
-      <c r="L3" s="344"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="342"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="314"/>
-      <c r="P3" s="322" t="s">
+      <c r="N3" s="326"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="308" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="323"/>
-      <c r="R3" s="324" t="s">
+      <c r="Q3" s="309"/>
+      <c r="R3" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="325"/>
+      <c r="S3" s="311"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -9931,7 +10081,7 @@
       <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="350"/>
+      <c r="I4" s="348"/>
       <c r="J4" s="235"/>
       <c r="K4" s="236" t="s">
         <v>7</v>
@@ -9985,29 +10135,29 @@
         <v>10</v>
       </c>
       <c r="J5" s="219"/>
-      <c r="K5" s="288">
+      <c r="K5" s="287">
         <v>335.3</v>
       </c>
-      <c r="L5" s="285">
+      <c r="L5" s="284">
         <v>10</v>
       </c>
       <c r="M5" s="42"/>
-      <c r="N5" s="283">
+      <c r="N5" s="282">
         <v>335.03</v>
       </c>
-      <c r="O5" s="284">
+      <c r="O5" s="283">
         <v>10</v>
       </c>
-      <c r="P5" s="308">
+      <c r="P5" s="306">
         <f t="shared" ref="P5:Q50" si="1">N5-H5</f>
         <v>-0.27000000000003865</v>
       </c>
-      <c r="Q5" s="302">
+      <c r="Q5" s="301">
         <f>O5-I5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="326"/>
-      <c r="S5" s="326"/>
+      <c r="R5" s="312"/>
+      <c r="S5" s="312"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -10017,7 +10167,7 @@
       <c r="B6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="270">
+      <c r="C6" s="269">
         <v>172.79</v>
       </c>
       <c r="D6" s="29">
@@ -10039,10 +10189,10 @@
         <v>60</v>
       </c>
       <c r="J6" s="219"/>
-      <c r="K6" s="289">
+      <c r="K6" s="288">
         <v>725.55</v>
       </c>
-      <c r="L6" s="282">
+      <c r="L6" s="281">
         <v>60</v>
       </c>
       <c r="M6" s="42"/>
@@ -10060,8 +10210,8 @@
         <f>O6-I6</f>
         <v>-2</v>
       </c>
-      <c r="R6" s="327"/>
-      <c r="S6" s="327"/>
+      <c r="R6" s="313"/>
+      <c r="S6" s="313"/>
       <c r="T6" s="45"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -10093,24 +10243,24 @@
         <v>66</v>
       </c>
       <c r="J7" s="219"/>
-      <c r="K7" s="289">
+      <c r="K7" s="288">
         <v>771.97</v>
       </c>
-      <c r="L7" s="282">
+      <c r="L7" s="281">
         <v>66</v>
       </c>
       <c r="M7" s="42"/>
-      <c r="N7" s="286">
+      <c r="N7" s="285">
         <v>771.62</v>
       </c>
-      <c r="O7" s="287">
+      <c r="O7" s="286">
         <v>66</v>
       </c>
       <c r="P7" s="249">
         <f t="shared" si="1"/>
         <v>-0.35000000000002274</v>
       </c>
-      <c r="Q7" s="302">
+      <c r="Q7" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10143,29 +10293,29 @@
         <v>62</v>
       </c>
       <c r="J8" s="219"/>
-      <c r="K8" s="289">
+      <c r="K8" s="288">
         <v>748.3</v>
       </c>
-      <c r="L8" s="282">
+      <c r="L8" s="281">
         <v>62</v>
       </c>
       <c r="M8" s="42"/>
-      <c r="N8" s="286">
+      <c r="N8" s="285">
         <v>748.1</v>
       </c>
-      <c r="O8" s="287">
+      <c r="O8" s="286">
         <v>62</v>
       </c>
       <c r="P8" s="249">
         <f t="shared" si="1"/>
         <v>-0.19999999999993179</v>
       </c>
-      <c r="Q8" s="302">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="328"/>
-      <c r="S8" s="328"/>
+      <c r="Q8" s="301">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="314"/>
+      <c r="S8" s="314"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -10177,7 +10327,7 @@
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="270"/>
+      <c r="E9" s="269"/>
       <c r="F9" s="28"/>
       <c r="G9" s="31"/>
       <c r="H9" s="224">
@@ -10189,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="219"/>
-      <c r="K9" s="290"/>
+      <c r="K9" s="289"/>
       <c r="L9" s="214"/>
       <c r="M9" s="42"/>
       <c r="N9" s="244"/>
@@ -10198,7 +10348,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="302">
+      <c r="Q9" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10231,29 +10381,29 @@
         <v>19</v>
       </c>
       <c r="J10" s="219"/>
-      <c r="K10" s="289">
+      <c r="K10" s="288">
         <v>696.32</v>
       </c>
-      <c r="L10" s="282">
+      <c r="L10" s="281">
         <v>19</v>
       </c>
       <c r="M10" s="42"/>
-      <c r="N10" s="286">
+      <c r="N10" s="285">
         <v>696.34</v>
       </c>
-      <c r="O10" s="287">
+      <c r="O10" s="286">
         <v>19</v>
       </c>
       <c r="P10" s="249">
         <f t="shared" si="1"/>
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="Q10" s="302">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="329"/>
-      <c r="S10" s="329"/>
+      <c r="Q10" s="301">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="315"/>
+      <c r="S10" s="315"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -10281,29 +10431,29 @@
         <v>9</v>
       </c>
       <c r="J11" s="219"/>
-      <c r="K11" s="294">
+      <c r="K11" s="293">
         <v>179.74</v>
       </c>
-      <c r="L11" s="295">
+      <c r="L11" s="294">
         <v>9</v>
       </c>
-      <c r="M11" s="296"/>
-      <c r="N11" s="297">
+      <c r="M11" s="295"/>
+      <c r="N11" s="296">
         <v>179.1</v>
       </c>
-      <c r="O11" s="298">
+      <c r="O11" s="297">
         <v>9</v>
       </c>
-      <c r="P11" s="299">
+      <c r="P11" s="298">
         <f t="shared" si="1"/>
         <v>8.3599999999999852</v>
       </c>
-      <c r="Q11" s="300">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="256"/>
-      <c r="S11" s="256"/>
+      <c r="Q11" s="299">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="255"/>
+      <c r="S11" s="255"/>
       <c r="T11" s="180" t="s">
         <v>78</v>
       </c>
@@ -10333,24 +10483,24 @@
         <v>75</v>
       </c>
       <c r="J12" s="219"/>
-      <c r="K12" s="289">
+      <c r="K12" s="288">
         <v>2039.56</v>
       </c>
-      <c r="L12" s="282">
+      <c r="L12" s="281">
         <v>75</v>
       </c>
       <c r="M12" s="34"/>
-      <c r="N12" s="286">
+      <c r="N12" s="285">
         <v>2039.56</v>
       </c>
-      <c r="O12" s="287">
+      <c r="O12" s="286">
         <v>75</v>
       </c>
       <c r="P12" s="249">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="302">
+      <c r="Q12" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10383,29 +10533,29 @@
         <v>2</v>
       </c>
       <c r="J13" s="219"/>
-      <c r="K13" s="289">
+      <c r="K13" s="288">
         <v>20</v>
       </c>
-      <c r="L13" s="282">
+      <c r="L13" s="281">
         <v>2</v>
       </c>
       <c r="M13" s="34"/>
-      <c r="N13" s="286">
+      <c r="N13" s="285">
         <v>20</v>
       </c>
-      <c r="O13" s="287">
+      <c r="O13" s="286">
         <v>2</v>
       </c>
       <c r="P13" s="249">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="302">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="330"/>
-      <c r="S13" s="330"/>
+      <c r="Q13" s="301">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="316"/>
+      <c r="S13" s="316"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -10433,24 +10583,24 @@
         <v>5</v>
       </c>
       <c r="J14" s="219"/>
-      <c r="K14" s="289">
+      <c r="K14" s="288">
         <v>50</v>
       </c>
-      <c r="L14" s="282">
+      <c r="L14" s="281">
         <v>5</v>
       </c>
       <c r="M14" s="34"/>
-      <c r="N14" s="286">
+      <c r="N14" s="285">
         <v>50</v>
       </c>
-      <c r="O14" s="287">
+      <c r="O14" s="286">
         <v>5</v>
       </c>
       <c r="P14" s="249">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="302">
+      <c r="Q14" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10487,10 +10637,10 @@
         <v>138</v>
       </c>
       <c r="J15" s="219"/>
-      <c r="K15" s="301">
+      <c r="K15" s="300">
         <v>4716.1000000000004</v>
       </c>
-      <c r="L15" s="282">
+      <c r="L15" s="281">
         <v>138</v>
       </c>
       <c r="M15" s="42"/>
@@ -10537,24 +10687,24 @@
         <v>10</v>
       </c>
       <c r="J16" s="219"/>
-      <c r="K16" s="289">
+      <c r="K16" s="288">
         <v>339.91</v>
       </c>
-      <c r="L16" s="282">
+      <c r="L16" s="281">
         <v>10</v>
       </c>
       <c r="M16" s="42"/>
-      <c r="N16" s="286">
+      <c r="N16" s="285">
         <v>339.91</v>
       </c>
-      <c r="O16" s="287">
+      <c r="O16" s="286">
         <v>10</v>
       </c>
       <c r="P16" s="249">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="302">
+      <c r="Q16" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10583,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="219"/>
-      <c r="K17" s="290"/>
+      <c r="K17" s="289"/>
       <c r="L17" s="214"/>
       <c r="M17" s="42"/>
       <c r="N17" s="244"/>
@@ -10625,10 +10775,10 @@
         <v>199</v>
       </c>
       <c r="J18" s="219"/>
-      <c r="K18" s="289">
+      <c r="K18" s="288">
         <v>4860.43</v>
       </c>
-      <c r="L18" s="282">
+      <c r="L18" s="281">
         <v>199</v>
       </c>
       <c r="M18" s="42"/>
@@ -10675,10 +10825,10 @@
         <v>583</v>
       </c>
       <c r="J19" s="219"/>
-      <c r="K19" s="289">
+      <c r="K19" s="288">
         <v>15840.34</v>
       </c>
-      <c r="L19" s="282">
+      <c r="L19" s="281">
         <v>583</v>
       </c>
       <c r="M19" s="42"/>
@@ -10721,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="219"/>
-      <c r="K20" s="290"/>
+      <c r="K20" s="289"/>
       <c r="L20" s="214"/>
       <c r="M20" s="42"/>
       <c r="N20" s="244"/>
@@ -10734,8 +10884,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20" s="331"/>
-      <c r="S20" s="331"/>
+      <c r="R20" s="317"/>
+      <c r="S20" s="317"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -10763,24 +10913,24 @@
         <v>25</v>
       </c>
       <c r="J21" s="219"/>
-      <c r="K21" s="289">
+      <c r="K21" s="288">
         <v>699.15</v>
       </c>
-      <c r="L21" s="282">
+      <c r="L21" s="281">
         <v>25</v>
       </c>
       <c r="M21" s="34"/>
-      <c r="N21" s="286">
+      <c r="N21" s="285">
         <v>699.14</v>
       </c>
-      <c r="O21" s="287">
+      <c r="O21" s="286">
         <v>25</v>
       </c>
       <c r="P21" s="249">
         <f t="shared" si="1"/>
         <v>-9.9999999999909051E-3</v>
       </c>
-      <c r="Q21" s="302">
+      <c r="Q21" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10809,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="219"/>
-      <c r="K22" s="290"/>
+      <c r="K22" s="289"/>
       <c r="L22" s="214"/>
       <c r="M22" s="42"/>
       <c r="N22" s="244"/>
@@ -10822,8 +10972,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R22" s="332"/>
-      <c r="S22" s="332"/>
+      <c r="R22" s="318"/>
+      <c r="S22" s="318"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -10851,10 +11001,10 @@
         <v>164</v>
       </c>
       <c r="J23" s="219"/>
-      <c r="K23" s="289">
+      <c r="K23" s="288">
         <v>3303.73</v>
       </c>
-      <c r="L23" s="282">
+      <c r="L23" s="281">
         <v>164</v>
       </c>
       <c r="M23" s="42"/>
@@ -10872,8 +11022,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R23" s="333"/>
-      <c r="S23" s="333"/>
+      <c r="R23" s="319"/>
+      <c r="S23" s="319"/>
       <c r="T23" s="45"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -10901,10 +11051,10 @@
         <v>337</v>
       </c>
       <c r="J24" s="219"/>
-      <c r="K24" s="289">
+      <c r="K24" s="288">
         <v>1529.98</v>
       </c>
-      <c r="L24" s="282">
+      <c r="L24" s="281">
         <v>337</v>
       </c>
       <c r="M24" s="42"/>
@@ -10951,24 +11101,24 @@
         <v>65</v>
       </c>
       <c r="J25" s="219"/>
-      <c r="K25" s="289">
+      <c r="K25" s="288">
         <v>1575.57</v>
       </c>
-      <c r="L25" s="282">
+      <c r="L25" s="281">
         <v>65</v>
       </c>
       <c r="M25" s="34"/>
-      <c r="N25" s="286">
+      <c r="N25" s="285">
         <v>1575.74</v>
       </c>
-      <c r="O25" s="287">
+      <c r="O25" s="286">
         <v>65</v>
       </c>
       <c r="P25" s="249">
         <f t="shared" si="1"/>
         <v>0.17000000000007276</v>
       </c>
-      <c r="Q25" s="302">
+      <c r="Q25" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10997,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="219"/>
-      <c r="K26" s="290"/>
+      <c r="K26" s="289"/>
       <c r="L26" s="214"/>
       <c r="M26" s="42"/>
       <c r="N26" s="244"/>
@@ -11010,8 +11160,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R26" s="334"/>
-      <c r="S26" s="334"/>
+      <c r="R26" s="320"/>
+      <c r="S26" s="320"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -11039,24 +11189,24 @@
         <v>13</v>
       </c>
       <c r="J27" s="219"/>
-      <c r="K27" s="289">
+      <c r="K27" s="288">
         <v>492.8</v>
       </c>
-      <c r="L27" s="282">
+      <c r="L27" s="281">
         <v>13</v>
       </c>
       <c r="M27" s="34"/>
-      <c r="N27" s="286">
+      <c r="N27" s="285">
         <v>492.8</v>
       </c>
-      <c r="O27" s="287">
+      <c r="O27" s="286">
         <v>13</v>
       </c>
       <c r="P27" s="249">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="302">
+      <c r="Q27" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11093,24 +11243,24 @@
         <v>129</v>
       </c>
       <c r="J28" s="219"/>
-      <c r="K28" s="289">
+      <c r="K28" s="288">
         <v>3226.89</v>
       </c>
-      <c r="L28" s="282">
+      <c r="L28" s="281">
         <v>129</v>
       </c>
       <c r="M28" s="34"/>
-      <c r="N28" s="286">
+      <c r="N28" s="285">
         <v>3225.84</v>
       </c>
-      <c r="O28" s="287">
+      <c r="O28" s="286">
         <v>129</v>
       </c>
       <c r="P28" s="249">
         <f t="shared" si="1"/>
         <v>-0.6999999999998181</v>
       </c>
-      <c r="Q28" s="302">
+      <c r="Q28" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11143,24 +11293,24 @@
         <v>125</v>
       </c>
       <c r="J29" s="219"/>
-      <c r="K29" s="289">
+      <c r="K29" s="288">
         <v>3684.25</v>
       </c>
-      <c r="L29" s="282">
+      <c r="L29" s="281">
         <v>125</v>
       </c>
       <c r="M29" s="34"/>
-      <c r="N29" s="286">
+      <c r="N29" s="285">
         <v>3684.36</v>
       </c>
-      <c r="O29" s="287">
+      <c r="O29" s="286">
         <v>125</v>
       </c>
       <c r="P29" s="249">
         <f t="shared" si="1"/>
         <v>0.21000000000003638</v>
       </c>
-      <c r="Q29" s="302">
+      <c r="Q29" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11197,10 +11347,10 @@
         <v>197</v>
       </c>
       <c r="J30" s="219"/>
-      <c r="K30" s="289">
+      <c r="K30" s="288">
         <v>4240</v>
       </c>
-      <c r="L30" s="282">
+      <c r="L30" s="281">
         <v>197</v>
       </c>
       <c r="M30" s="42"/>
@@ -11251,24 +11401,24 @@
         <v>812</v>
       </c>
       <c r="J31" s="219"/>
-      <c r="K31" s="289">
+      <c r="K31" s="288">
         <v>22096.880000000001</v>
       </c>
-      <c r="L31" s="282">
+      <c r="L31" s="281">
         <v>812</v>
       </c>
       <c r="M31" s="34"/>
-      <c r="N31" s="286">
+      <c r="N31" s="285">
         <v>22102.639999999999</v>
       </c>
-      <c r="O31" s="287">
+      <c r="O31" s="286">
         <v>812</v>
       </c>
       <c r="P31" s="249">
         <f t="shared" si="1"/>
         <v>3.0400000000008731</v>
       </c>
-      <c r="Q31" s="302">
+      <c r="Q31" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11301,24 +11451,24 @@
         <v>35</v>
       </c>
       <c r="J32" s="219"/>
-      <c r="K32" s="289">
+      <c r="K32" s="288">
         <v>350</v>
       </c>
-      <c r="L32" s="282">
+      <c r="L32" s="281">
         <v>35</v>
       </c>
       <c r="M32" s="34"/>
-      <c r="N32" s="286">
+      <c r="N32" s="285">
         <v>350</v>
       </c>
-      <c r="O32" s="287">
+      <c r="O32" s="286">
         <v>35</v>
       </c>
       <c r="P32" s="249">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="302">
+      <c r="Q32" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11351,24 +11501,24 @@
         <v>120</v>
       </c>
       <c r="J33" s="219"/>
-      <c r="K33" s="289">
+      <c r="K33" s="288">
         <v>1200</v>
       </c>
-      <c r="L33" s="282">
+      <c r="L33" s="281">
         <v>120</v>
       </c>
       <c r="M33" s="34"/>
-      <c r="N33" s="286">
+      <c r="N33" s="285">
         <v>1200</v>
       </c>
-      <c r="O33" s="287">
+      <c r="O33" s="286">
         <v>120</v>
       </c>
       <c r="P33" s="249">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="302">
+      <c r="Q33" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11380,7 +11530,7 @@
       <c r="W33" s="13"/>
     </row>
     <row r="34" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="265" t="s">
+      <c r="B34" s="264" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="96">
@@ -11401,24 +11551,24 @@
         <v>81</v>
       </c>
       <c r="J34" s="219"/>
-      <c r="K34" s="289">
+      <c r="K34" s="288">
         <v>810</v>
       </c>
-      <c r="L34" s="282">
+      <c r="L34" s="281">
         <v>81</v>
       </c>
       <c r="M34" s="34"/>
-      <c r="N34" s="286">
+      <c r="N34" s="285">
         <v>810</v>
       </c>
-      <c r="O34" s="287">
+      <c r="O34" s="286">
         <v>81</v>
       </c>
       <c r="P34" s="249">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="302">
+      <c r="Q34" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11447,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="219"/>
-      <c r="K35" s="290"/>
+      <c r="K35" s="289"/>
       <c r="L35" s="214"/>
       <c r="M35" s="42"/>
       <c r="N35" s="244"/>
@@ -11485,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="219"/>
-      <c r="K36" s="290"/>
+      <c r="K36" s="289"/>
       <c r="L36" s="214"/>
       <c r="M36" s="42"/>
       <c r="N36" s="244"/>
@@ -11523,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="219"/>
-      <c r="K37" s="290"/>
+      <c r="K37" s="289"/>
       <c r="L37" s="214"/>
       <c r="M37" s="42"/>
       <c r="N37" s="244"/>
@@ -11562,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="219"/>
-      <c r="K38" s="290"/>
+      <c r="K38" s="289"/>
       <c r="L38" s="214"/>
       <c r="M38" s="42"/>
       <c r="N38" s="244"/>
@@ -11583,7 +11733,7 @@
       <c r="W38" s="13"/>
     </row>
     <row r="39" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="264" t="s">
+      <c r="B39" s="263" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="28"/>
@@ -11604,20 +11754,20 @@
         <v>7</v>
       </c>
       <c r="J39" s="219"/>
-      <c r="K39" s="294"/>
-      <c r="L39" s="295"/>
+      <c r="K39" s="293"/>
+      <c r="L39" s="294"/>
       <c r="M39" s="42"/>
-      <c r="N39" s="286">
+      <c r="N39" s="285">
         <v>6310.5</v>
       </c>
-      <c r="O39" s="287">
+      <c r="O39" s="286">
         <v>7</v>
       </c>
       <c r="P39" s="249">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="302">
+      <c r="Q39" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11641,16 +11791,16 @@
       <c r="E40" s="102"/>
       <c r="F40" s="96"/>
       <c r="G40" s="103"/>
-      <c r="H40" s="303">
+      <c r="H40" s="302">
         <f t="shared" si="0"/>
         <v>4183.6400000000003</v>
       </c>
-      <c r="I40" s="304">
+      <c r="I40" s="303">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
       <c r="J40" s="219"/>
-      <c r="K40" s="290">
+      <c r="K40" s="289">
         <v>4161.12</v>
       </c>
       <c r="L40" s="214">
@@ -11673,7 +11823,7 @@
       </c>
       <c r="R40" s="116"/>
       <c r="S40" s="117"/>
-      <c r="T40" s="307" t="s">
+      <c r="T40" s="305" t="s">
         <v>80</v>
       </c>
       <c r="U40" s="13"/>
@@ -11681,15 +11831,15 @@
       <c r="W40" s="13"/>
     </row>
     <row r="41" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="266" t="s">
+      <c r="B41" s="265" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="257"/>
+      <c r="C41" s="256"/>
       <c r="D41" s="97"/>
       <c r="E41" s="102"/>
       <c r="F41" s="96"/>
-      <c r="G41" s="260"/>
-      <c r="H41" s="259">
+      <c r="G41" s="259"/>
+      <c r="H41" s="258">
         <f t="shared" ref="H41:I50" si="2">F41+C41</f>
         <v>0</v>
       </c>
@@ -11698,8 +11848,8 @@
         <v>0</v>
       </c>
       <c r="J41" s="219"/>
-      <c r="K41" s="291"/>
-      <c r="L41" s="258"/>
+      <c r="K41" s="290"/>
+      <c r="L41" s="257"/>
       <c r="M41" s="42"/>
       <c r="N41" s="244"/>
       <c r="O41" s="245"/>
@@ -11719,10 +11869,10 @@
       <c r="W41" s="13"/>
     </row>
     <row r="42" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="266" t="s">
+      <c r="B42" s="265" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="257">
+      <c r="C42" s="256">
         <v>5657.3</v>
       </c>
       <c r="D42" s="97">
@@ -11730,8 +11880,8 @@
       </c>
       <c r="E42" s="111"/>
       <c r="F42" s="96"/>
-      <c r="G42" s="260"/>
-      <c r="H42" s="259">
+      <c r="G42" s="259"/>
+      <c r="H42" s="258">
         <f t="shared" si="2"/>
         <v>5657.3</v>
       </c>
@@ -11740,24 +11890,24 @@
         <v>192</v>
       </c>
       <c r="J42" s="220"/>
-      <c r="K42" s="293">
+      <c r="K42" s="292">
         <v>5657.3</v>
       </c>
-      <c r="L42" s="281">
+      <c r="L42" s="280">
         <v>192</v>
       </c>
-      <c r="M42" s="305"/>
-      <c r="N42" s="286">
+      <c r="M42" s="304"/>
+      <c r="N42" s="285">
         <v>5657.3</v>
       </c>
-      <c r="O42" s="287">
+      <c r="O42" s="286">
         <v>192</v>
       </c>
       <c r="P42" s="249">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="302">
+      <c r="Q42" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11769,15 +11919,15 @@
       <c r="W42" s="13"/>
     </row>
     <row r="43" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="267" t="s">
+      <c r="B43" s="266" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="115"/>
       <c r="D43" s="29"/>
       <c r="E43" s="30"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="261"/>
-      <c r="H43" s="259">
+      <c r="G43" s="260"/>
+      <c r="H43" s="258">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11786,8 +11936,8 @@
         <v>0</v>
       </c>
       <c r="J43" s="219"/>
-      <c r="K43" s="293"/>
-      <c r="L43" s="281"/>
+      <c r="K43" s="292"/>
+      <c r="L43" s="280"/>
       <c r="M43" s="124"/>
       <c r="N43" s="244"/>
       <c r="O43" s="245"/>
@@ -11807,15 +11957,15 @@
       <c r="W43" s="13"/>
     </row>
     <row r="44" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="262" t="s">
+      <c r="B44" s="261" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="115"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="261"/>
-      <c r="H44" s="259">
+      <c r="G44" s="260"/>
+      <c r="H44" s="258">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11824,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="219"/>
-      <c r="K44" s="292"/>
+      <c r="K44" s="291"/>
       <c r="L44" s="216"/>
       <c r="M44" s="124"/>
       <c r="N44" s="244"/>
@@ -11845,7 +11995,7 @@
       <c r="W44" s="13"/>
     </row>
     <row r="45" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="263" t="s">
+      <c r="B45" s="262" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="115"/>
@@ -11854,10 +12004,10 @@
       <c r="F45" s="28">
         <v>438.08</v>
       </c>
-      <c r="G45" s="261">
+      <c r="G45" s="260">
         <v>18</v>
       </c>
-      <c r="H45" s="259">
+      <c r="H45" s="258">
         <f t="shared" si="2"/>
         <v>438.08</v>
       </c>
@@ -11866,24 +12016,24 @@
         <v>18</v>
       </c>
       <c r="J45" s="219"/>
-      <c r="K45" s="293">
+      <c r="K45" s="292">
         <v>438.08</v>
       </c>
-      <c r="L45" s="281">
+      <c r="L45" s="280">
         <v>18</v>
       </c>
-      <c r="M45" s="305"/>
-      <c r="N45" s="286">
+      <c r="M45" s="304"/>
+      <c r="N45" s="285">
         <v>438.08</v>
       </c>
-      <c r="O45" s="287">
+      <c r="O45" s="286">
         <v>18</v>
       </c>
       <c r="P45" s="249">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="302">
+      <c r="Q45" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11895,7 +12045,7 @@
       <c r="W45" s="13"/>
     </row>
     <row r="46" spans="1:23" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="263" t="s">
+      <c r="B46" s="262" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="115">
@@ -11906,8 +12056,8 @@
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="261"/>
-      <c r="H46" s="259">
+      <c r="G46" s="260"/>
+      <c r="H46" s="258">
         <f t="shared" si="2"/>
         <v>1435.77</v>
       </c>
@@ -11916,10 +12066,10 @@
         <v>56</v>
       </c>
       <c r="J46" s="219"/>
-      <c r="K46" s="293">
+      <c r="K46" s="292">
         <v>1435.77</v>
       </c>
-      <c r="L46" s="281">
+      <c r="L46" s="280">
         <v>56</v>
       </c>
       <c r="M46" s="124"/>
@@ -11945,7 +12095,7 @@
       <c r="W46" s="13"/>
     </row>
     <row r="47" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="263" t="s">
+      <c r="B47" s="262" t="s">
         <v>44</v>
       </c>
       <c r="C47" s="115">
@@ -11956,8 +12106,8 @@
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="261"/>
-      <c r="H47" s="259">
+      <c r="G47" s="260"/>
+      <c r="H47" s="258">
         <f t="shared" si="2"/>
         <v>1115.48</v>
       </c>
@@ -11966,24 +12116,24 @@
         <v>37</v>
       </c>
       <c r="J47" s="219"/>
-      <c r="K47" s="293">
+      <c r="K47" s="292">
         <v>1115.56</v>
       </c>
-      <c r="L47" s="281">
+      <c r="L47" s="280">
         <v>37</v>
       </c>
-      <c r="M47" s="305"/>
-      <c r="N47" s="286">
+      <c r="M47" s="304"/>
+      <c r="N47" s="285">
         <v>1115.49</v>
       </c>
-      <c r="O47" s="287">
+      <c r="O47" s="286">
         <v>37</v>
       </c>
       <c r="P47" s="249">
         <f t="shared" si="1"/>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="Q47" s="302">
+      <c r="Q47" s="301">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11995,15 +12145,15 @@
       <c r="W47" s="13"/>
     </row>
     <row r="48" spans="1:23" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="268" t="s">
+      <c r="B48" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="271"/>
-      <c r="D48" s="273"/>
-      <c r="E48" s="275"/>
-      <c r="F48" s="277"/>
-      <c r="G48" s="279"/>
-      <c r="H48" s="259">
+      <c r="C48" s="270"/>
+      <c r="D48" s="272"/>
+      <c r="E48" s="274"/>
+      <c r="F48" s="276"/>
+      <c r="G48" s="278"/>
+      <c r="H48" s="258">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12012,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="219"/>
-      <c r="K48" s="292"/>
+      <c r="K48" s="291"/>
       <c r="L48" s="216"/>
       <c r="M48" s="124"/>
       <c r="N48" s="244"/>
@@ -12033,13 +12183,13 @@
       <c r="W48" s="13"/>
     </row>
     <row r="49" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="263"/>
+      <c r="B49" s="262"/>
       <c r="C49" s="115"/>
       <c r="D49" s="29"/>
       <c r="E49" s="30"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="261"/>
-      <c r="H49" s="259">
+      <c r="G49" s="260"/>
+      <c r="H49" s="258">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12048,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="219"/>
-      <c r="K49" s="292"/>
+      <c r="K49" s="291"/>
       <c r="L49" s="216"/>
       <c r="M49" s="124"/>
       <c r="N49" s="244"/>
@@ -12069,13 +12219,13 @@
       <c r="W49" s="13"/>
     </row>
     <row r="50" spans="2:23" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="269"/>
-      <c r="C50" s="272"/>
-      <c r="D50" s="274"/>
-      <c r="E50" s="276"/>
-      <c r="F50" s="278"/>
-      <c r="G50" s="280"/>
-      <c r="H50" s="259">
+      <c r="B50" s="268"/>
+      <c r="C50" s="271"/>
+      <c r="D50" s="273"/>
+      <c r="E50" s="275"/>
+      <c r="F50" s="277"/>
+      <c r="G50" s="279"/>
+      <c r="H50" s="258">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12084,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="6"/>
-      <c r="K50" s="292"/>
+      <c r="K50" s="291"/>
       <c r="L50" s="216"/>
       <c r="M50" s="124"/>
       <c r="N50" s="246"/>
@@ -12107,10 +12257,10 @@
     <row r="51" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="145"/>
       <c r="D51" s="147"/>
-      <c r="F51" s="351" t="s">
+      <c r="F51" s="349" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="351"/>
+      <c r="G51" s="349"/>
       <c r="H51" s="148">
         <f>SUM(H5:H34)</f>
         <v>74525.02</v>
@@ -12331,14 +12481,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -12351,6 +12493,14 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
